--- a/SoftbankExcel/工廠提供的到貨日期表_SBM PO Weekly Update-1007.xlsx
+++ b/SoftbankExcel/工廠提供的到貨日期表_SBM PO Weekly Update-1007.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C5C54AC-99BA-4507-80DF-63757A8F7DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{9C5C54AC-99BA-4507-80DF-63757A8F7DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A883EC1-C5CC-456A-8761-356AB4376B02}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Open PO" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>作成者</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="G171" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -48,16 +48,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="128"/>
           </rPr>
-          <t>作成者:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 天气原因，港区拥堵，ETA 10/4 晚开至10/10，已请货代加急送货</t>
@@ -69,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="400">
   <si>
     <t>Air</t>
   </si>
@@ -1521,6 +1519,447 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>DD225F-005A-A-S2022-08-16</t>
+  </si>
+  <si>
+    <t>屋内直流分電盤</t>
+  </si>
+  <si>
+    <t>0001-01-01</t>
+  </si>
+  <si>
+    <t>DD225F-005A-A-S2023-07-26</t>
+  </si>
+  <si>
+    <t>DD225F-005A-A-S2023-09-16</t>
+  </si>
+  <si>
+    <t>DD225F-005A-A-S2023-10-03</t>
+  </si>
+  <si>
+    <t>DD225F-005A-A-S2024-01-23</t>
+  </si>
+  <si>
+    <t>DD225F-005A-A-S2024-04-24</t>
+  </si>
+  <si>
+    <t>DD225F-005A-A-S2024-10-21</t>
+  </si>
+  <si>
+    <t>Sea--Air</t>
+  </si>
+  <si>
+    <t>DD225F-005A-A-S2024-12-03</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA012023-06-22</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA012023-08-02</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA012023-08-28</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA012023-09-15</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA012023-09-27</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA012023-10-26</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA012023-11-02</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA012024-01-18</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA012024-03-26</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA012024-04-02</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA012024-05-20</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA012024-08-28</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA012024-10-18</t>
+  </si>
+  <si>
+    <t>In transit</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA012024-11-02</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA012024-12-18</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA012024-12-19</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA012024-12-23</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA012025-01-15</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA022023-09-01</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA022023-10-26</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA022023-11-03</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA022024-01-23</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA022024-02-01</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA022024-03-26</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA022024-08-28</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA022024-11-03</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA022024-12-18</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA032023-11-20</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA032024-03-26</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA032024-08-23</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA032025-02-05</t>
+  </si>
+  <si>
+    <t>J1JO240957</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA042023-11-20</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA042024-05-09</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA042024-05-16</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA042024-08-28</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA042025-01-18</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA042025-02-05</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA052023-11-20</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA052024-03-26</t>
+  </si>
+  <si>
+    <t>ESAA75-CEA052024-08-23</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA012023-10-08</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA012024-01-23</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA012024-06-06</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA012024-08-28</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA012025-01-07</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA012025-03-18</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA022023-09-27</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA022023-09-28</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA022023-10-26</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA022023-11-09</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA022024-01-23</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA022024-06-06</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA022024-09-10</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA022024-12-02</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA022025-01-17</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA022025-03-18</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA032023-11-24</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA032023-12-01</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA032024-01-23</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA032024-06-14</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA032024-08-28</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA032025-03-15</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA032025-03-18</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA042023-10-06</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA042024-01-23</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA042024-02-01</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA042024-02-15</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA042024-09-10</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA042024-09-25</t>
+  </si>
+  <si>
+    <t>ESBC200-CEA042025-03-15</t>
+  </si>
+  <si>
+    <t>ESI-48B601AFJ-S2024-01-05</t>
+  </si>
+  <si>
+    <t>ESR-48/40D S-S 2023-07-03</t>
+  </si>
+  <si>
+    <t>ESR-48/40D S-S 2023-07-26</t>
+  </si>
+  <si>
+    <t>ESR-48/40D S-S2023-05-02</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IP65 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>单相</t>
+    </r>
+  </si>
+  <si>
+    <t>ESR-48/40D S-S2023-06-08</t>
+  </si>
+  <si>
+    <t>ESR-48/40D S-S2023-06-16</t>
+  </si>
+  <si>
+    <t>ESR-48/40D S-S2023-09-01</t>
+  </si>
+  <si>
+    <t>ESR-48/40D S-S2023-09-07</t>
+  </si>
+  <si>
+    <t>ESR-48/40D S-S2023-09-28</t>
+  </si>
+  <si>
+    <t>ESR-48/40D S-S2023-12-07</t>
+  </si>
+  <si>
+    <t>ESR-48/40D S-S2023-12-10</t>
+  </si>
+  <si>
+    <t>ESR-48/40D S-S2024-01-04</t>
+  </si>
+  <si>
+    <t>ESR-48/40D S-S2024-02-01</t>
+  </si>
+  <si>
+    <t>ESR-48/40D S-S2024-04-24</t>
+  </si>
+  <si>
+    <t>ESR-48/40D S-S2024-05-22</t>
+  </si>
+  <si>
+    <t>ESR-48/40D S-S2024-07-05</t>
+  </si>
+  <si>
+    <t>单相</t>
+  </si>
+  <si>
+    <t>ESR-48/40D S-S2024-10-18</t>
+  </si>
+  <si>
+    <t>ESR-48/40D S-S2024-11-02</t>
+  </si>
+  <si>
+    <t>ESR-48/40D S-S2024-12-08</t>
+  </si>
+  <si>
+    <t>ESR-48/56C F-A2023-10-26</t>
+  </si>
+  <si>
+    <t>ESR-48/56C F-A2024-02-01</t>
+  </si>
+  <si>
+    <t>ESR-48/56C F-A2024-05-02</t>
+  </si>
+  <si>
+    <t>ESR-48/56C F-A2024-07-24</t>
+  </si>
+  <si>
+    <t>ESR-48/56C F-A2024-10-04</t>
+  </si>
+  <si>
+    <t>ESR-48/56H A-S2023-07-27</t>
+  </si>
+  <si>
+    <t>ESR-48/56H A-S2023-08-02</t>
+  </si>
+  <si>
+    <t>ESR-48/56H A-S2023-08-28</t>
+  </si>
+  <si>
+    <t>ESR-48/56H A-S2023-09-28</t>
+  </si>
+  <si>
+    <t>ESR-48/56L J-S2025-01-15</t>
+  </si>
+  <si>
+    <t>J1JO241065</t>
+  </si>
+  <si>
+    <t>ESR-48/56L J-S2025-03-05</t>
+  </si>
+  <si>
+    <t>SBM-CS</t>
+  </si>
+  <si>
+    <t>ESR-48/60A A-A2024-01-05</t>
+  </si>
+  <si>
+    <t>ESR-48/60C A-S2024-01-05</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IP65 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>三相</t>
+    </r>
+  </si>
+  <si>
+    <t>ESR-48/60C A-S2024-02-01</t>
+  </si>
+  <si>
+    <t>ESR-48/60C A-S2024-02-15</t>
+  </si>
+  <si>
+    <t>ESR-48/60C A-S2024-03-05</t>
+  </si>
+  <si>
+    <t>ESR-48/60C A-S2024-07-16</t>
+  </si>
+  <si>
+    <t>ESR-48/60C A-S2024-07-24</t>
+  </si>
+  <si>
+    <t>ESR-48/60C A-S2024-07-25</t>
+  </si>
+  <si>
+    <t>ESR-48/60C A-S2024-08-22</t>
+  </si>
+  <si>
+    <t>ESR-48/60C A-S2024-11-08</t>
+  </si>
+  <si>
+    <t>ESR-48/60C A-S2024-12-03</t>
+  </si>
+  <si>
+    <t>ESR-48/60C A-S2024-12-08</t>
+  </si>
+  <si>
+    <t>ESR-48/60C A-S2024-12-14</t>
+  </si>
+  <si>
+    <t>ESR-48/60C A-S2025-03-18</t>
+  </si>
+  <si>
+    <t>ESXB125-HEA012024-01-05</t>
+  </si>
+  <si>
+    <t>EX-B01 A-A2025-01-15</t>
+  </si>
+  <si>
+    <t>NSR-48/60D J1-S 2025-01-17</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>NSR-48/60D J1-S 2025-03-15</t>
+  </si>
+  <si>
+    <t>J1JO240956</t>
+  </si>
+  <si>
+    <t>TPS1020023AJ04-S2024-11-08</t>
+  </si>
 </sst>
 </file>
 
@@ -1531,17 +1970,17 @@
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1562,7 +2001,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1582,7 +2021,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1613,14 +2051,19 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MingLiU"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1723,7 +2166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1870,11 +2313,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2157,38 +2602,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q223"/>
+  <dimension ref="A1:AK223"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="16" ySplit="169" topLeftCell="Q209" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="A170" sqref="A170"/>
-      <selection pane="bottomRight" activeCell="H223" sqref="H223"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H145" sqref="H145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.69921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.09765625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.69921875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.69921875" style="1"/>
+    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="24" width="8.7109375" style="1"/>
+    <col min="25" max="25" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="31" customFormat="1" ht="28.8">
+    <row r="1" spans="1:37" s="31" customFormat="1" ht="45">
       <c r="A1" s="26" t="s">
         <v>35</v>
       </c>
@@ -2238,7 +2681,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1">
+    <row r="2" spans="1:37">
       <c r="A2" s="5">
         <v>44711</v>
       </c>
@@ -2284,7 +2727,7 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" hidden="1">
+    <row r="3" spans="1:37">
       <c r="A3" s="5">
         <v>44722</v>
       </c>
@@ -2329,8 +2772,47 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="8"/>
-    </row>
-    <row r="4" spans="1:17" hidden="1">
+      <c r="Y3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z3" s="70">
+        <v>44711</v>
+      </c>
+      <c r="AA3" s="71" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>100</v>
+      </c>
+      <c r="AE3" s="70">
+        <v>44771</v>
+      </c>
+      <c r="AF3" s="70">
+        <v>44775</v>
+      </c>
+      <c r="AG3" s="70">
+        <v>44789</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>2022</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" s="5">
         <v>44888</v>
       </c>
@@ -2375,8 +2857,47 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="8"/>
-    </row>
-    <row r="5" spans="1:17" hidden="1">
+      <c r="Y4" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z4" s="70">
+        <v>45072</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>170</v>
+      </c>
+      <c r="AE4" s="70">
+        <v>45119</v>
+      </c>
+      <c r="AF4" s="70">
+        <v>45123</v>
+      </c>
+      <c r="AG4" s="70">
+        <v>45133</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" s="5">
         <v>44883</v>
       </c>
@@ -2421,8 +2942,47 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="8"/>
-    </row>
-    <row r="6" spans="1:17" hidden="1">
+      <c r="Y5" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z5" s="70">
+        <v>45120</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE5" s="70">
+        <v>45167</v>
+      </c>
+      <c r="AF5" s="70">
+        <v>45171</v>
+      </c>
+      <c r="AG5" s="70">
+        <v>45185</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" s="5">
         <v>44903</v>
       </c>
@@ -2467,8 +3027,47 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="8"/>
-    </row>
-    <row r="7" spans="1:17" hidden="1">
+      <c r="Y6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z6" s="70">
+        <v>45134</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>120</v>
+      </c>
+      <c r="AE6" s="70">
+        <v>45189</v>
+      </c>
+      <c r="AF6" s="70">
+        <v>45193</v>
+      </c>
+      <c r="AG6" s="70">
+        <v>45202</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
       <c r="A7" s="5">
         <v>44930</v>
       </c>
@@ -2513,8 +3112,47 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="8"/>
-    </row>
-    <row r="8" spans="1:17" hidden="1">
+      <c r="Y7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z7" s="70">
+        <v>45205</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>80</v>
+      </c>
+      <c r="AE7" s="70">
+        <v>45296</v>
+      </c>
+      <c r="AF7" s="70">
+        <v>45300</v>
+      </c>
+      <c r="AG7" s="70">
+        <v>45314</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
       <c r="A8" s="5">
         <v>44526</v>
       </c>
@@ -2561,8 +3199,47 @@
         <v>155</v>
       </c>
       <c r="Q8" s="8"/>
-    </row>
-    <row r="9" spans="1:17" hidden="1">
+      <c r="Y8" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z8" s="70">
+        <v>45316</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>30</v>
+      </c>
+      <c r="AE8" s="70">
+        <v>45394</v>
+      </c>
+      <c r="AF8" s="70">
+        <v>45398</v>
+      </c>
+      <c r="AG8" s="70">
+        <v>45406</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
       <c r="A9" s="5">
         <v>44708</v>
       </c>
@@ -2607,8 +3284,47 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="8"/>
-    </row>
-    <row r="10" spans="1:17" hidden="1">
+      <c r="Y9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z9" s="70">
+        <v>45435</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>18</v>
+      </c>
+      <c r="AE9" s="70">
+        <v>45580</v>
+      </c>
+      <c r="AF9" s="70">
+        <v>45582</v>
+      </c>
+      <c r="AG9" s="70">
+        <v>45586</v>
+      </c>
+      <c r="AH9" s="70">
+        <v>45580</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
       <c r="A10" s="5">
         <v>44708</v>
       </c>
@@ -2653,8 +3369,47 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="8"/>
-    </row>
-    <row r="11" spans="1:17" hidden="1">
+      <c r="Y10" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z10" s="70">
+        <v>45505</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>45</v>
+      </c>
+      <c r="AE10" s="70">
+        <v>45611</v>
+      </c>
+      <c r="AF10" s="70">
+        <v>45615</v>
+      </c>
+      <c r="AG10" s="70">
+        <v>45629</v>
+      </c>
+      <c r="AH10" s="70">
+        <v>45613</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
       <c r="A11" s="5">
         <v>44957</v>
       </c>
@@ -2701,8 +3456,47 @@
       <c r="Q11" s="8" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" hidden="1">
+      <c r="Y11" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z11" s="70">
+        <v>44340</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>54</v>
+      </c>
+      <c r="AE11" s="70">
+        <v>45086</v>
+      </c>
+      <c r="AF11" s="70">
+        <v>45090</v>
+      </c>
+      <c r="AG11" s="70">
+        <v>45099</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
       <c r="A12" s="5">
         <v>44965</v>
       </c>
@@ -2749,8 +3543,47 @@
       <c r="Q12" s="8" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" hidden="1">
+      <c r="Y12" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z12" s="70">
+        <v>44340</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>54</v>
+      </c>
+      <c r="AE12" s="70">
+        <v>45127</v>
+      </c>
+      <c r="AF12" s="70">
+        <v>45131</v>
+      </c>
+      <c r="AG12" s="70">
+        <v>45140</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
       <c r="A13" s="5">
         <v>44965</v>
       </c>
@@ -2797,8 +3630,47 @@
       <c r="Q13" s="8" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" hidden="1">
+      <c r="Y13" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z13" s="70">
+        <v>44340</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>54</v>
+      </c>
+      <c r="AE13" s="70">
+        <v>45155</v>
+      </c>
+      <c r="AF13" s="70">
+        <v>45159</v>
+      </c>
+      <c r="AG13" s="70">
+        <v>45166</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37">
       <c r="A14" s="5">
         <v>44965</v>
       </c>
@@ -2845,8 +3717,47 @@
       <c r="Q14" s="8" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" hidden="1">
+      <c r="Y14" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z14" s="70">
+        <v>44340</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>45</v>
+      </c>
+      <c r="AE14" s="70">
+        <v>45168</v>
+      </c>
+      <c r="AF14" s="70">
+        <v>45172</v>
+      </c>
+      <c r="AG14" s="70">
+        <v>45184</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37">
       <c r="A15" s="5">
         <v>44986</v>
       </c>
@@ -2891,8 +3802,47 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="8"/>
-    </row>
-    <row r="16" spans="1:17" hidden="1">
+      <c r="Y15" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z15" s="70">
+        <v>44340</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE15" s="70">
+        <v>45176</v>
+      </c>
+      <c r="AF15" s="70">
+        <v>45180</v>
+      </c>
+      <c r="AG15" s="70">
+        <v>45196</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
       <c r="A16" s="5">
         <v>44526</v>
       </c>
@@ -2941,8 +3891,47 @@
         <v>55</v>
       </c>
       <c r="Q16" s="8"/>
-    </row>
-    <row r="17" spans="1:17" hidden="1">
+      <c r="Y16" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z16" s="70">
+        <v>44340</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>45</v>
+      </c>
+      <c r="AE16" s="70">
+        <v>45217</v>
+      </c>
+      <c r="AF16" s="70">
+        <v>45221</v>
+      </c>
+      <c r="AG16" s="70">
+        <v>45225</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37">
       <c r="A17" s="5">
         <v>44526</v>
       </c>
@@ -2989,8 +3978,47 @@
         <v>155</v>
       </c>
       <c r="Q17" s="8"/>
-    </row>
-    <row r="18" spans="1:17" hidden="1">
+      <c r="Y17" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z17" s="70">
+        <v>44340</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE17" s="70">
+        <v>45218</v>
+      </c>
+      <c r="AF17" s="70">
+        <v>45222</v>
+      </c>
+      <c r="AG17" s="70">
+        <v>45232</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37">
       <c r="A18" s="5">
         <v>44708</v>
       </c>
@@ -3035,8 +4063,47 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="8"/>
-    </row>
-    <row r="19" spans="1:17" hidden="1">
+      <c r="Y18" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z18" s="70">
+        <v>44409</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>76</v>
+      </c>
+      <c r="AE18" s="70">
+        <v>45296</v>
+      </c>
+      <c r="AF18" s="70">
+        <v>45300</v>
+      </c>
+      <c r="AG18" s="70">
+        <v>45309</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37">
       <c r="A19" s="5">
         <v>44708</v>
       </c>
@@ -3081,8 +4148,47 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="8"/>
-    </row>
-    <row r="20" spans="1:17" hidden="1">
+      <c r="Y19" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z19" s="70">
+        <v>45252</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE19" s="70">
+        <v>45367</v>
+      </c>
+      <c r="AF19" s="70">
+        <v>45371</v>
+      </c>
+      <c r="AG19" s="70">
+        <v>45377</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37">
       <c r="A20" s="5">
         <v>44340</v>
       </c>
@@ -3127,8 +4233,47 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="8"/>
-    </row>
-    <row r="21" spans="1:17" hidden="1">
+      <c r="Y20" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z20" s="70">
+        <v>45252</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>18</v>
+      </c>
+      <c r="AE20" s="70">
+        <v>45373</v>
+      </c>
+      <c r="AF20" s="70">
+        <v>45377</v>
+      </c>
+      <c r="AG20" s="70">
+        <v>45384</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37">
       <c r="A21" s="5">
         <v>45085</v>
       </c>
@@ -3173,8 +4318,47 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="8"/>
-    </row>
-    <row r="22" spans="1:17" hidden="1">
+      <c r="Y21" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z21" s="70">
+        <v>45316</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>50</v>
+      </c>
+      <c r="AE21" s="70">
+        <v>45420</v>
+      </c>
+      <c r="AF21" s="70">
+        <v>45424</v>
+      </c>
+      <c r="AG21" s="70">
+        <v>45432</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
       <c r="A22" s="5">
         <v>45041</v>
       </c>
@@ -3219,8 +4403,47 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="8"/>
-    </row>
-    <row r="23" spans="1:17" hidden="1">
+      <c r="Y22" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z22" s="70">
+        <v>45316</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>36</v>
+      </c>
+      <c r="AE22" s="70">
+        <v>45518</v>
+      </c>
+      <c r="AF22" s="70">
+        <v>45522</v>
+      </c>
+      <c r="AG22" s="70">
+        <v>45532</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37">
       <c r="A23" s="5">
         <v>45085</v>
       </c>
@@ -3265,8 +4488,47 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="8"/>
-    </row>
-    <row r="24" spans="1:17" hidden="1">
+      <c r="Y23" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z23" s="70">
+        <v>45498</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>27</v>
+      </c>
+      <c r="AE23" s="70">
+        <v>45565</v>
+      </c>
+      <c r="AF23" s="70">
+        <v>45575</v>
+      </c>
+      <c r="AG23" s="70">
+        <v>45583</v>
+      </c>
+      <c r="AH23" s="70">
+        <v>45613</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK23" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37">
       <c r="A24" s="5">
         <v>45041</v>
       </c>
@@ -3311,8 +4573,47 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="8"/>
-    </row>
-    <row r="25" spans="1:17" hidden="1">
+      <c r="Y24" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z24" s="70">
+        <v>45498</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>27</v>
+      </c>
+      <c r="AE24" s="70">
+        <v>45580</v>
+      </c>
+      <c r="AF24" s="70">
+        <v>45584</v>
+      </c>
+      <c r="AG24" s="70">
+        <v>45598</v>
+      </c>
+      <c r="AH24" s="70">
+        <v>45613</v>
+      </c>
+      <c r="AI24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK24" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
       <c r="A25" s="5">
         <v>45072</v>
       </c>
@@ -3357,8 +4658,47 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="8"/>
-    </row>
-    <row r="26" spans="1:17" hidden="1">
+      <c r="Y25" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z25" s="70">
+        <v>45530</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>54</v>
+      </c>
+      <c r="AE25" s="70">
+        <v>45626</v>
+      </c>
+      <c r="AF25" s="70">
+        <v>45630</v>
+      </c>
+      <c r="AG25" s="70">
+        <v>45644</v>
+      </c>
+      <c r="AH25" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK25" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37">
       <c r="A26" s="5">
         <v>45044</v>
       </c>
@@ -3403,8 +4743,47 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="8"/>
-    </row>
-    <row r="27" spans="1:17" hidden="1">
+      <c r="Y26" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z26" s="70">
+        <v>44409</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>50</v>
+      </c>
+      <c r="AE26" s="70">
+        <v>45266</v>
+      </c>
+      <c r="AF26" s="70">
+        <v>45270</v>
+      </c>
+      <c r="AG26" s="70">
+        <v>45645</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
       <c r="A27" s="5">
         <v>45070</v>
       </c>
@@ -3449,8 +4828,47 @@
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="8"/>
-    </row>
-    <row r="28" spans="1:17" hidden="1">
+      <c r="Y27" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z27" s="70">
+        <v>45530</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>315</v>
+      </c>
+      <c r="AE27" s="70">
+        <v>45631</v>
+      </c>
+      <c r="AF27" s="70">
+        <v>45635</v>
+      </c>
+      <c r="AG27" s="70">
+        <v>45649</v>
+      </c>
+      <c r="AH27" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK27" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
       <c r="A28" s="5">
         <v>45055</v>
       </c>
@@ -3495,8 +4913,47 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="8"/>
-    </row>
-    <row r="29" spans="1:17" hidden="1">
+      <c r="Y28" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z28" s="70">
+        <v>45546</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>72</v>
+      </c>
+      <c r="AE28" s="70">
+        <v>45654</v>
+      </c>
+      <c r="AF28" s="70">
+        <v>45658</v>
+      </c>
+      <c r="AG28" s="70">
+        <v>45672</v>
+      </c>
+      <c r="AH28" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>2025</v>
+      </c>
+      <c r="AK28" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
       <c r="A29" s="5">
         <v>45085</v>
       </c>
@@ -3541,8 +4998,47 @@
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="8"/>
-    </row>
-    <row r="30" spans="1:17" hidden="1">
+      <c r="Y29" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z29" s="70">
+        <v>44340</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>63</v>
+      </c>
+      <c r="AE29" s="70">
+        <v>45156</v>
+      </c>
+      <c r="AF29" s="70">
+        <v>45160</v>
+      </c>
+      <c r="AG29" s="70">
+        <v>45170</v>
+      </c>
+      <c r="AH29" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK29" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37">
       <c r="A30" s="5">
         <v>44526</v>
       </c>
@@ -3589,8 +5085,47 @@
         <v>155</v>
       </c>
       <c r="Q30" s="8"/>
-    </row>
-    <row r="31" spans="1:17" hidden="1">
+      <c r="Y30" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z30" s="70">
+        <v>45146</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>27</v>
+      </c>
+      <c r="AE30" s="70">
+        <v>45217</v>
+      </c>
+      <c r="AF30" s="70">
+        <v>45221</v>
+      </c>
+      <c r="AG30" s="70">
+        <v>45225</v>
+      </c>
+      <c r="AH30" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK30" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
       <c r="A31" s="5">
         <v>44340</v>
       </c>
@@ -3635,8 +5170,47 @@
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="8"/>
-    </row>
-    <row r="32" spans="1:17" hidden="1">
+      <c r="Y31" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z31" s="70">
+        <v>45146</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE31" s="70">
+        <v>45219</v>
+      </c>
+      <c r="AF31" s="70">
+        <v>45223</v>
+      </c>
+      <c r="AG31" s="70">
+        <v>45233</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37">
       <c r="A32" s="5">
         <v>44340</v>
       </c>
@@ -3681,8 +5255,47 @@
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="8"/>
-    </row>
-    <row r="33" spans="1:17" hidden="1">
+      <c r="Y32" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z32" s="70">
+        <v>45225</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>18</v>
+      </c>
+      <c r="AE32" s="70">
+        <v>45299</v>
+      </c>
+      <c r="AF32" s="70">
+        <v>45303</v>
+      </c>
+      <c r="AG32" s="70">
+        <v>45314</v>
+      </c>
+      <c r="AH32" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK32" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37">
       <c r="A33" s="5">
         <v>45061</v>
       </c>
@@ -3727,8 +5340,47 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="8"/>
-    </row>
-    <row r="34" spans="1:17" hidden="1">
+      <c r="Y33" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z33" s="70">
+        <v>45225</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE33" s="70">
+        <v>45315</v>
+      </c>
+      <c r="AF33" s="70">
+        <v>45319</v>
+      </c>
+      <c r="AG33" s="70">
+        <v>45323</v>
+      </c>
+      <c r="AH33" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK33" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37">
       <c r="A34" s="5">
         <v>45070</v>
       </c>
@@ -3773,8 +5425,47 @@
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="8"/>
-    </row>
-    <row r="35" spans="1:17" hidden="1">
+      <c r="Y34" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z34" s="70">
+        <v>45279</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>81</v>
+      </c>
+      <c r="AE34" s="70">
+        <v>45367</v>
+      </c>
+      <c r="AF34" s="70">
+        <v>45371</v>
+      </c>
+      <c r="AG34" s="70">
+        <v>45377</v>
+      </c>
+      <c r="AH34" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK34" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37">
       <c r="A35" s="5">
         <v>45061</v>
       </c>
@@ -3819,8 +5510,47 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="8"/>
-    </row>
-    <row r="36" spans="1:17" hidden="1">
+      <c r="Y35" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z35" s="70">
+        <v>45316</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE35" s="70">
+        <v>45518</v>
+      </c>
+      <c r="AF35" s="70">
+        <v>45522</v>
+      </c>
+      <c r="AG35" s="70">
+        <v>45532</v>
+      </c>
+      <c r="AH35" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK35" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37">
       <c r="A36" s="5">
         <v>45092</v>
       </c>
@@ -3865,8 +5595,47 @@
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="8"/>
-    </row>
-    <row r="37" spans="1:17" hidden="1">
+      <c r="Y36" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z36" s="70">
+        <v>45498</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>54</v>
+      </c>
+      <c r="AE36" s="70">
+        <v>45581</v>
+      </c>
+      <c r="AF36" s="70">
+        <v>45585</v>
+      </c>
+      <c r="AG36" s="70">
+        <v>45599</v>
+      </c>
+      <c r="AH36" s="70">
+        <v>45613</v>
+      </c>
+      <c r="AI36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ36" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK36" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
       <c r="A37" s="5">
         <v>44340</v>
       </c>
@@ -3911,8 +5680,47 @@
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="8"/>
-    </row>
-    <row r="38" spans="1:17" hidden="1">
+      <c r="Y37" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z37" s="70">
+        <v>45546</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>54</v>
+      </c>
+      <c r="AE37" s="70">
+        <v>45626</v>
+      </c>
+      <c r="AF37" s="70">
+        <v>45630</v>
+      </c>
+      <c r="AG37" s="70">
+        <v>45644</v>
+      </c>
+      <c r="AH37" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ37" s="1">
+        <v>2025</v>
+      </c>
+      <c r="AK37" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37">
       <c r="A38" s="5">
         <v>45093</v>
       </c>
@@ -3957,8 +5765,47 @@
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="8"/>
-    </row>
-    <row r="39" spans="1:17" hidden="1">
+      <c r="Y38" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z38" s="70">
+        <v>45155</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE38" s="70">
+        <v>45240</v>
+      </c>
+      <c r="AF38" s="70">
+        <v>45244</v>
+      </c>
+      <c r="AG38" s="70">
+        <v>45250</v>
+      </c>
+      <c r="AH38" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ38" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK38" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37">
       <c r="A39" s="5">
         <v>44526</v>
       </c>
@@ -4007,8 +5854,47 @@
         <v>55</v>
       </c>
       <c r="Q39" s="8"/>
-    </row>
-    <row r="40" spans="1:17" hidden="1">
+      <c r="Y39" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z39" s="70">
+        <v>45265</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE39" s="70">
+        <v>45367</v>
+      </c>
+      <c r="AF39" s="70">
+        <v>45371</v>
+      </c>
+      <c r="AG39" s="70">
+        <v>45377</v>
+      </c>
+      <c r="AH39" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ39" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK39" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37">
       <c r="A40" s="5">
         <v>44340</v>
       </c>
@@ -4053,8 +5939,47 @@
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="8"/>
-    </row>
-    <row r="41" spans="1:17" hidden="1">
+      <c r="Y40" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z40" s="70">
+        <v>45390</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE40" s="70">
+        <v>45512</v>
+      </c>
+      <c r="AF40" s="70">
+        <v>45516</v>
+      </c>
+      <c r="AG40" s="70">
+        <v>45527</v>
+      </c>
+      <c r="AH40" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ40" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK40" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37">
       <c r="A41" s="5">
         <v>44526</v>
       </c>
@@ -4101,8 +6026,47 @@
         <v>155</v>
       </c>
       <c r="Q41" s="8"/>
-    </row>
-    <row r="42" spans="1:17" hidden="1">
+      <c r="Y41" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z41" s="70">
+        <v>45569</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE41" s="70">
+        <v>45675</v>
+      </c>
+      <c r="AF41" s="70">
+        <v>45679</v>
+      </c>
+      <c r="AG41" s="70">
+        <v>45693</v>
+      </c>
+      <c r="AH41" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ41" s="1">
+        <v>2025</v>
+      </c>
+      <c r="AK41" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37">
       <c r="A42" s="5">
         <v>45093</v>
       </c>
@@ -4147,8 +6111,47 @@
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="8"/>
-    </row>
-    <row r="43" spans="1:17" hidden="1">
+      <c r="Y42" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z42" s="70">
+        <v>45155</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE42" s="70">
+        <v>45240</v>
+      </c>
+      <c r="AF42" s="70">
+        <v>45244</v>
+      </c>
+      <c r="AG42" s="70">
+        <v>45250</v>
+      </c>
+      <c r="AH42" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ42" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK42" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37">
       <c r="A43" s="5">
         <v>45120</v>
       </c>
@@ -4193,8 +6196,47 @@
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="8"/>
-    </row>
-    <row r="44" spans="1:17" hidden="1">
+      <c r="Y43" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z43" s="70">
+        <v>45265</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE43" s="70">
+        <v>45401</v>
+      </c>
+      <c r="AF43" s="70">
+        <v>45405</v>
+      </c>
+      <c r="AG43" s="70">
+        <v>45421</v>
+      </c>
+      <c r="AH43" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ43" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK43" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37">
       <c r="A44" s="5">
         <v>45093</v>
       </c>
@@ -4239,8 +6281,47 @@
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="8"/>
-    </row>
-    <row r="45" spans="1:17" hidden="1">
+      <c r="Y44" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z44" s="70">
+        <v>45300</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE44" s="70">
+        <v>45411</v>
+      </c>
+      <c r="AF44" s="70">
+        <v>45415</v>
+      </c>
+      <c r="AG44" s="70">
+        <v>45428</v>
+      </c>
+      <c r="AH44" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ44" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK44" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37">
       <c r="A45" s="5">
         <v>45093</v>
       </c>
@@ -4285,8 +6366,47 @@
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="8"/>
-    </row>
-    <row r="46" spans="1:17" hidden="1">
+      <c r="Y45" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z45" s="70">
+        <v>45443</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE45" s="70">
+        <v>45518</v>
+      </c>
+      <c r="AF45" s="70">
+        <v>45522</v>
+      </c>
+      <c r="AG45" s="70">
+        <v>45532</v>
+      </c>
+      <c r="AH45" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ45" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK45" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37">
       <c r="A46" s="5">
         <v>45093</v>
       </c>
@@ -4331,8 +6451,47 @@
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="8"/>
-    </row>
-    <row r="47" spans="1:17" hidden="1">
+      <c r="Y46" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z46" s="70">
+        <v>45546</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB46" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>24</v>
+      </c>
+      <c r="AE46" s="70">
+        <v>45657</v>
+      </c>
+      <c r="AF46" s="70">
+        <v>45661</v>
+      </c>
+      <c r="AG46" s="70">
+        <v>45675</v>
+      </c>
+      <c r="AH46" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ46" s="1">
+        <v>2025</v>
+      </c>
+      <c r="AK46" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37">
       <c r="A47" s="5">
         <v>45093</v>
       </c>
@@ -4377,8 +6536,47 @@
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="8"/>
-    </row>
-    <row r="48" spans="1:17" hidden="1">
+      <c r="Y47" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z47" s="70">
+        <v>45569</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB47" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>24</v>
+      </c>
+      <c r="AE47" s="70">
+        <v>45675</v>
+      </c>
+      <c r="AF47" s="70">
+        <v>45679</v>
+      </c>
+      <c r="AG47" s="70">
+        <v>45693</v>
+      </c>
+      <c r="AH47" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ47" s="1">
+        <v>2025</v>
+      </c>
+      <c r="AK47" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37">
       <c r="A48" s="5">
         <v>44340</v>
       </c>
@@ -4423,8 +6621,47 @@
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="8"/>
-    </row>
-    <row r="49" spans="1:17" hidden="1">
+      <c r="Y48" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z48" s="70">
+        <v>45155</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE48" s="70">
+        <v>45240</v>
+      </c>
+      <c r="AF48" s="70">
+        <v>45244</v>
+      </c>
+      <c r="AG48" s="70">
+        <v>45250</v>
+      </c>
+      <c r="AH48" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ48" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK48" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37">
       <c r="A49" s="5">
         <v>44708</v>
       </c>
@@ -4469,8 +6706,47 @@
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="8"/>
-    </row>
-    <row r="50" spans="1:17" hidden="1">
+      <c r="Y49" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z49" s="70">
+        <v>45252</v>
+      </c>
+      <c r="AA49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>18</v>
+      </c>
+      <c r="AE49" s="70">
+        <v>45367</v>
+      </c>
+      <c r="AF49" s="70">
+        <v>45371</v>
+      </c>
+      <c r="AG49" s="70">
+        <v>45377</v>
+      </c>
+      <c r="AH49" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ49" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK49" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37">
       <c r="A50" s="5">
         <v>44340</v>
       </c>
@@ -4515,8 +6791,47 @@
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="8"/>
-    </row>
-    <row r="51" spans="1:17" hidden="1">
+      <c r="Y50" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z50" s="70">
+        <v>45435</v>
+      </c>
+      <c r="AA50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE50" s="70">
+        <v>45512</v>
+      </c>
+      <c r="AF50" s="70">
+        <v>45516</v>
+      </c>
+      <c r="AG50" s="70">
+        <v>45527</v>
+      </c>
+      <c r="AH50" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ50" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK50" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37">
       <c r="A51" s="5">
         <v>45110</v>
       </c>
@@ -4561,8 +6876,47 @@
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="8"/>
-    </row>
-    <row r="52" spans="1:17" hidden="1">
+      <c r="Y51" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="Z51" s="70">
+        <v>44708</v>
+      </c>
+      <c r="AA51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>30</v>
+      </c>
+      <c r="AE51" s="70">
+        <v>45189</v>
+      </c>
+      <c r="AF51" s="70">
+        <v>45193</v>
+      </c>
+      <c r="AG51" s="70">
+        <v>45207</v>
+      </c>
+      <c r="AH51" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ51" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37">
       <c r="A52" s="5">
         <v>44526</v>
       </c>
@@ -4609,8 +6963,47 @@
         <v>55</v>
       </c>
       <c r="Q52" s="8"/>
-    </row>
-    <row r="53" spans="1:17" hidden="1">
+      <c r="Y52" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z52" s="70">
+        <v>44708</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>30</v>
+      </c>
+      <c r="AE52" s="70">
+        <v>45302</v>
+      </c>
+      <c r="AF52" s="70">
+        <v>45306</v>
+      </c>
+      <c r="AG52" s="70">
+        <v>45314</v>
+      </c>
+      <c r="AH52" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ52" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK52" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:37">
       <c r="A53" s="5">
         <v>44708</v>
       </c>
@@ -4655,8 +7048,47 @@
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="8"/>
-    </row>
-    <row r="54" spans="1:17" hidden="1">
+      <c r="Y53" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z53" s="70">
+        <v>45316</v>
+      </c>
+      <c r="AA53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE53" s="70">
+        <v>45429</v>
+      </c>
+      <c r="AF53" s="70">
+        <v>45433</v>
+      </c>
+      <c r="AG53" s="70">
+        <v>45449</v>
+      </c>
+      <c r="AH53" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ53" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK53" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:37">
       <c r="A54" s="5">
         <v>45169</v>
       </c>
@@ -4701,8 +7133,47 @@
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="8"/>
-    </row>
-    <row r="55" spans="1:17" hidden="1">
+      <c r="Y54" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z54" s="70">
+        <v>45427</v>
+      </c>
+      <c r="AA54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE54" s="70">
+        <v>45520</v>
+      </c>
+      <c r="AF54" s="70">
+        <v>45524</v>
+      </c>
+      <c r="AG54" s="70">
+        <v>45532</v>
+      </c>
+      <c r="AH54" s="70">
+        <v>45553</v>
+      </c>
+      <c r="AI54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ54" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK54" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:37">
       <c r="A55" s="5">
         <v>45093</v>
       </c>
@@ -4747,8 +7218,47 @@
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="8"/>
-    </row>
-    <row r="56" spans="1:17" hidden="1">
+      <c r="Y55" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z55" s="70">
+        <v>45524</v>
+      </c>
+      <c r="AA55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>24</v>
+      </c>
+      <c r="AE55" s="70">
+        <v>45646</v>
+      </c>
+      <c r="AF55" s="70">
+        <v>45650</v>
+      </c>
+      <c r="AG55" s="70">
+        <v>45664</v>
+      </c>
+      <c r="AH55" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ55" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK55" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:37">
       <c r="A56" s="5">
         <v>44708</v>
       </c>
@@ -4793,8 +7303,47 @@
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="8"/>
-    </row>
-    <row r="57" spans="1:17" hidden="1">
+      <c r="Y56" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z56" s="70">
+        <v>45530</v>
+      </c>
+      <c r="AA56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>160</v>
+      </c>
+      <c r="AE56" s="70">
+        <v>45716</v>
+      </c>
+      <c r="AF56" s="70">
+        <v>45720</v>
+      </c>
+      <c r="AG56" s="70">
+        <v>45734</v>
+      </c>
+      <c r="AH56" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI56" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ56" s="1">
+        <v>2025</v>
+      </c>
+      <c r="AK56" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:37">
       <c r="A57" s="5">
         <v>44708</v>
       </c>
@@ -4839,8 +7388,47 @@
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="8"/>
-    </row>
-    <row r="58" spans="1:17" hidden="1">
+      <c r="Y57" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z57" s="70">
+        <v>44708</v>
+      </c>
+      <c r="AA57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE57" s="70">
+        <v>45176</v>
+      </c>
+      <c r="AF57" s="70">
+        <v>45180</v>
+      </c>
+      <c r="AG57" s="70">
+        <v>45196</v>
+      </c>
+      <c r="AH57" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ57" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK57" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:37">
       <c r="A58" s="5">
         <v>45134</v>
       </c>
@@ -4885,8 +7473,47 @@
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="8"/>
-    </row>
-    <row r="59" spans="1:17" hidden="1">
+      <c r="Y58" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z58" s="70">
+        <v>44708</v>
+      </c>
+      <c r="AA58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE58" s="70">
+        <v>45183</v>
+      </c>
+      <c r="AF58" s="70">
+        <v>45187</v>
+      </c>
+      <c r="AG58" s="70">
+        <v>45197</v>
+      </c>
+      <c r="AH58" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ58" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK58" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:37">
       <c r="A59" s="5">
         <v>44526</v>
       </c>
@@ -4933,8 +7560,47 @@
         <v>155</v>
       </c>
       <c r="Q59" s="8"/>
-    </row>
-    <row r="60" spans="1:17" hidden="1">
+      <c r="Y59" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z59" s="70">
+        <v>44708</v>
+      </c>
+      <c r="AA59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE59" s="70">
+        <v>45217</v>
+      </c>
+      <c r="AF59" s="70">
+        <v>45221</v>
+      </c>
+      <c r="AG59" s="70">
+        <v>45225</v>
+      </c>
+      <c r="AH59" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ59" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK59" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:37">
       <c r="A60" s="5">
         <v>45093</v>
       </c>
@@ -4979,8 +7645,47 @@
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="8"/>
-    </row>
-    <row r="61" spans="1:17" hidden="1">
+      <c r="Y60" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="Z60" s="70">
+        <v>44708</v>
+      </c>
+      <c r="AA60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD60" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE60" s="70">
+        <v>45223</v>
+      </c>
+      <c r="AF60" s="70">
+        <v>45227</v>
+      </c>
+      <c r="AG60" s="70">
+        <v>45239</v>
+      </c>
+      <c r="AH60" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ60" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK60" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:37">
       <c r="A61" s="5">
         <v>45134</v>
       </c>
@@ -5025,8 +7730,47 @@
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
       <c r="Q61" s="8"/>
-    </row>
-    <row r="62" spans="1:17" hidden="1">
+      <c r="Y61" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z61" s="70">
+        <v>45225</v>
+      </c>
+      <c r="AA61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB61" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE61" s="70">
+        <v>45302</v>
+      </c>
+      <c r="AF61" s="70">
+        <v>45306</v>
+      </c>
+      <c r="AG61" s="70">
+        <v>45314</v>
+      </c>
+      <c r="AH61" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ61" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK61" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:37">
       <c r="A62" s="5">
         <v>44340</v>
       </c>
@@ -5071,8 +7815,47 @@
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="8"/>
-    </row>
-    <row r="63" spans="1:17" hidden="1">
+      <c r="Y62" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z62" s="70">
+        <v>45316</v>
+      </c>
+      <c r="AA62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE62" s="70">
+        <v>45429</v>
+      </c>
+      <c r="AF62" s="70">
+        <v>45433</v>
+      </c>
+      <c r="AG62" s="70">
+        <v>45449</v>
+      </c>
+      <c r="AH62" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ62" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK62" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:37">
       <c r="A63" s="5">
         <v>45146</v>
       </c>
@@ -5117,8 +7900,47 @@
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="8"/>
-    </row>
-    <row r="64" spans="1:17" hidden="1">
+      <c r="Y63" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z63" s="70">
+        <v>45427</v>
+      </c>
+      <c r="AA63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE63" s="70">
+        <v>45527</v>
+      </c>
+      <c r="AF63" s="70">
+        <v>45531</v>
+      </c>
+      <c r="AG63" s="70">
+        <v>45545</v>
+      </c>
+      <c r="AH63" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ63" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK63" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:37">
       <c r="A64" s="5">
         <v>45155</v>
       </c>
@@ -5163,8 +7985,47 @@
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="8"/>
-    </row>
-    <row r="65" spans="1:17" hidden="1">
+      <c r="Y64" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z64" s="70">
+        <v>45469</v>
+      </c>
+      <c r="AA64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>40</v>
+      </c>
+      <c r="AE64" s="70">
+        <v>45610</v>
+      </c>
+      <c r="AF64" s="70">
+        <v>45614</v>
+      </c>
+      <c r="AG64" s="70">
+        <v>45628</v>
+      </c>
+      <c r="AH64" s="70">
+        <v>45614</v>
+      </c>
+      <c r="AI64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ64" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK64" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:37">
       <c r="A65" s="5">
         <v>44708</v>
       </c>
@@ -5209,8 +8070,47 @@
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
       <c r="Q65" s="8"/>
-    </row>
-    <row r="66" spans="1:17" hidden="1">
+      <c r="Y65" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z65" s="70">
+        <v>45469</v>
+      </c>
+      <c r="AA65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD65" s="1">
+        <v>52</v>
+      </c>
+      <c r="AE65" s="70">
+        <v>45656</v>
+      </c>
+      <c r="AF65" s="70">
+        <v>45660</v>
+      </c>
+      <c r="AG65" s="70">
+        <v>45674</v>
+      </c>
+      <c r="AH65" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ65" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK65" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:37">
       <c r="A66" s="5">
         <v>44340</v>
       </c>
@@ -5255,8 +8155,47 @@
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="8"/>
-    </row>
-    <row r="67" spans="1:17" hidden="1">
+      <c r="Y66" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z66" s="70">
+        <v>45530</v>
+      </c>
+      <c r="AA66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB66" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD66" s="1">
+        <v>200</v>
+      </c>
+      <c r="AE66" s="70">
+        <v>45716</v>
+      </c>
+      <c r="AF66" s="70">
+        <v>45720</v>
+      </c>
+      <c r="AG66" s="70">
+        <v>45734</v>
+      </c>
+      <c r="AH66" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI66" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ66" s="1">
+        <v>2025</v>
+      </c>
+      <c r="AK66" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:37">
       <c r="A67" s="5">
         <v>45146</v>
       </c>
@@ -5301,8 +8240,47 @@
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="8"/>
-    </row>
-    <row r="68" spans="1:17" hidden="1">
+      <c r="Y67" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z67" s="70">
+        <v>44708</v>
+      </c>
+      <c r="AA67" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD67" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE67" s="70">
+        <v>45243</v>
+      </c>
+      <c r="AF67" s="70">
+        <v>45247</v>
+      </c>
+      <c r="AG67" s="70">
+        <v>45254</v>
+      </c>
+      <c r="AH67" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI67" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ67" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK67" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:37">
       <c r="A68" s="5">
         <v>44708</v>
       </c>
@@ -5347,8 +8325,47 @@
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="8"/>
-    </row>
-    <row r="69" spans="1:17" hidden="1">
+      <c r="Y68" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z68" s="70">
+        <v>44708</v>
+      </c>
+      <c r="AA68" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD68" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE68" s="70">
+        <v>45252</v>
+      </c>
+      <c r="AF68" s="70">
+        <v>45256</v>
+      </c>
+      <c r="AG68" s="70">
+        <v>45261</v>
+      </c>
+      <c r="AH68" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI68" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ68" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK68" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:37">
       <c r="A69" s="5">
         <v>45134</v>
       </c>
@@ -5393,8 +8410,47 @@
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
       <c r="Q69" s="8"/>
-    </row>
-    <row r="70" spans="1:17" hidden="1">
+      <c r="Y69" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z69" s="70">
+        <v>44708</v>
+      </c>
+      <c r="AA69" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB69" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD69" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE69" s="70">
+        <v>45302</v>
+      </c>
+      <c r="AF69" s="70">
+        <v>45306</v>
+      </c>
+      <c r="AG69" s="70">
+        <v>45314</v>
+      </c>
+      <c r="AH69" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ69" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK69" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:37">
       <c r="A70" s="5">
         <v>44708</v>
       </c>
@@ -5439,8 +8495,47 @@
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="8"/>
-    </row>
-    <row r="71" spans="1:17" hidden="1">
+      <c r="Y70" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z70" s="70">
+        <v>45316</v>
+      </c>
+      <c r="AA70" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD70" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE70" s="70">
+        <v>45448</v>
+      </c>
+      <c r="AF70" s="70">
+        <v>45452</v>
+      </c>
+      <c r="AG70" s="70">
+        <v>45457</v>
+      </c>
+      <c r="AH70" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI70" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ70" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK70" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:37">
       <c r="A71" s="5">
         <v>45134</v>
       </c>
@@ -5485,8 +8580,47 @@
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
       <c r="Q71" s="8"/>
-    </row>
-    <row r="72" spans="1:17" hidden="1">
+      <c r="Y71" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z71" s="70">
+        <v>45427</v>
+      </c>
+      <c r="AA71" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB71" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD71" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE71" s="70">
+        <v>45520</v>
+      </c>
+      <c r="AF71" s="70">
+        <v>45524</v>
+      </c>
+      <c r="AG71" s="70">
+        <v>45532</v>
+      </c>
+      <c r="AH71" s="70">
+        <v>45553</v>
+      </c>
+      <c r="AI71" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ71" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK71" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:37">
       <c r="A72" s="5">
         <v>45155</v>
       </c>
@@ -5531,8 +8665,47 @@
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="8"/>
-    </row>
-    <row r="73" spans="1:17" hidden="1">
+      <c r="Y72" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z72" s="70">
+        <v>45524</v>
+      </c>
+      <c r="AA72" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB72" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD72" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE72" s="70">
+        <v>45713</v>
+      </c>
+      <c r="AF72" s="70">
+        <v>45717</v>
+      </c>
+      <c r="AG72" s="70">
+        <v>45731</v>
+      </c>
+      <c r="AH72" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI72" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ72" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK72" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:37">
       <c r="A73" s="5">
         <v>45155</v>
       </c>
@@ -5577,8 +8750,47 @@
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="8"/>
-    </row>
-    <row r="74" spans="1:17" hidden="1">
+      <c r="Y73" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z73" s="70">
+        <v>45530</v>
+      </c>
+      <c r="AA73" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB73" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE73" s="70">
+        <v>45716</v>
+      </c>
+      <c r="AF73" s="70">
+        <v>45720</v>
+      </c>
+      <c r="AG73" s="70">
+        <v>45734</v>
+      </c>
+      <c r="AH73" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI73" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ73" s="1">
+        <v>2025</v>
+      </c>
+      <c r="AK73" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:37">
       <c r="A74" s="5">
         <v>45155</v>
       </c>
@@ -5623,8 +8835,47 @@
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
       <c r="Q74" s="8"/>
-    </row>
-    <row r="75" spans="1:17" hidden="1">
+      <c r="Y74" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z74" s="70">
+        <v>44708</v>
+      </c>
+      <c r="AA74" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD74" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE74" s="70">
+        <v>45189</v>
+      </c>
+      <c r="AF74" s="70">
+        <v>45193</v>
+      </c>
+      <c r="AG74" s="70">
+        <v>45205</v>
+      </c>
+      <c r="AH74" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI74" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ74" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK74" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:37">
       <c r="A75" s="5">
         <v>44708</v>
       </c>
@@ -5669,8 +8920,47 @@
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
       <c r="Q75" s="8"/>
-    </row>
-    <row r="76" spans="1:17" hidden="1">
+      <c r="Y75" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z75" s="70">
+        <v>44708</v>
+      </c>
+      <c r="AA75" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB75" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD75" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE75" s="70">
+        <v>45310</v>
+      </c>
+      <c r="AF75" s="70">
+        <v>45314</v>
+      </c>
+      <c r="AG75" s="70">
+        <v>45314</v>
+      </c>
+      <c r="AH75" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI75" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ75" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK75" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:37">
       <c r="A76" s="5">
         <v>45134</v>
       </c>
@@ -5715,8 +9005,47 @@
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
       <c r="Q76" s="8"/>
-    </row>
-    <row r="77" spans="1:17" hidden="1">
+      <c r="Y76" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z76" s="70">
+        <v>44708</v>
+      </c>
+      <c r="AA76" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB76" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD76" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE76" s="70">
+        <v>45315</v>
+      </c>
+      <c r="AF76" s="70">
+        <v>45319</v>
+      </c>
+      <c r="AG76" s="70">
+        <v>45323</v>
+      </c>
+      <c r="AH76" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ76" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK76" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:37">
       <c r="A77" s="5">
         <v>45134</v>
       </c>
@@ -5761,8 +9090,47 @@
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
       <c r="Q77" s="8"/>
-    </row>
-    <row r="78" spans="1:17" hidden="1">
+      <c r="Y77" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z77" s="70">
+        <v>45230</v>
+      </c>
+      <c r="AA77" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB77" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD77" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE77" s="70">
+        <v>45325</v>
+      </c>
+      <c r="AF77" s="70">
+        <v>45329</v>
+      </c>
+      <c r="AG77" s="70">
+        <v>45337</v>
+      </c>
+      <c r="AH77" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI77" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ77" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK77" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:37">
       <c r="A78" s="5">
         <v>45191</v>
       </c>
@@ -5807,8 +9175,47 @@
       <c r="O78" s="6"/>
       <c r="P78" s="6"/>
       <c r="Q78" s="8"/>
-    </row>
-    <row r="79" spans="1:17" hidden="1">
+      <c r="Y78" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z78" s="70">
+        <v>45427</v>
+      </c>
+      <c r="AA78" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB78" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD78" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE78" s="70">
+        <v>45527</v>
+      </c>
+      <c r="AF78" s="70">
+        <v>45531</v>
+      </c>
+      <c r="AG78" s="70">
+        <v>45545</v>
+      </c>
+      <c r="AH78" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI78" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ78" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK78" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:37">
       <c r="A79" s="5">
         <v>45134</v>
       </c>
@@ -5853,8 +9260,47 @@
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
       <c r="Q79" s="8"/>
-    </row>
-    <row r="80" spans="1:17" hidden="1">
+      <c r="Y79" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z79" s="70">
+        <v>45446</v>
+      </c>
+      <c r="AA79" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD79" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE79" s="70">
+        <v>45541</v>
+      </c>
+      <c r="AF79" s="70">
+        <v>45545</v>
+      </c>
+      <c r="AG79" s="70">
+        <v>45560</v>
+      </c>
+      <c r="AH79" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI79" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ79" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK79" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:37">
       <c r="A80" s="5">
         <v>44419</v>
       </c>
@@ -5903,8 +9349,47 @@
         <v>162</v>
       </c>
       <c r="Q80" s="8"/>
-    </row>
-    <row r="81" spans="1:17" hidden="1">
+      <c r="Y80" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z80" s="70">
+        <v>45524</v>
+      </c>
+      <c r="AA80" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB80" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD80" s="1">
+        <v>116</v>
+      </c>
+      <c r="AE80" s="70">
+        <v>45713</v>
+      </c>
+      <c r="AF80" s="70">
+        <v>45717</v>
+      </c>
+      <c r="AG80" s="70">
+        <v>45731</v>
+      </c>
+      <c r="AH80" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI80" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ80" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK80" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:37">
       <c r="A81" s="5">
         <v>44419</v>
       </c>
@@ -5953,8 +9438,47 @@
         <v>162</v>
       </c>
       <c r="Q81" s="8"/>
-    </row>
-    <row r="82" spans="1:17" hidden="1">
+      <c r="Y81" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z81" s="70">
+        <v>45169</v>
+      </c>
+      <c r="AA81" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB81" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD81" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE81" s="70">
+        <v>45279</v>
+      </c>
+      <c r="AF81" s="70">
+        <v>45282</v>
+      </c>
+      <c r="AG81" s="70">
+        <v>45296</v>
+      </c>
+      <c r="AH81" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI81" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ81" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK81" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:37">
       <c r="A82" s="5">
         <v>44409</v>
       </c>
@@ -5999,8 +9523,47 @@
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
       <c r="Q82" s="8"/>
-    </row>
-    <row r="83" spans="1:17" hidden="1">
+      <c r="Y82" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z82" s="70">
+        <v>45085</v>
+      </c>
+      <c r="AA82" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD82" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE82" s="70">
+        <v>45093</v>
+      </c>
+      <c r="AF82" s="70">
+        <v>45097</v>
+      </c>
+      <c r="AG82" s="70">
+        <v>45110</v>
+      </c>
+      <c r="AH82" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI82" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ82" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK82" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:37">
       <c r="A83" s="5">
         <v>45226</v>
       </c>
@@ -6045,8 +9608,47 @@
       <c r="O83" s="6"/>
       <c r="P83" s="6"/>
       <c r="Q83" s="8"/>
-    </row>
-    <row r="84" spans="1:17" hidden="1">
+      <c r="Y83" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z83" s="70">
+        <v>45085</v>
+      </c>
+      <c r="AA83" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC83" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD83" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE83" s="70">
+        <v>45114</v>
+      </c>
+      <c r="AF83" s="70">
+        <v>45118</v>
+      </c>
+      <c r="AG83" s="70">
+        <v>45133</v>
+      </c>
+      <c r="AH83" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI83" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ83" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK83" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:37">
       <c r="A84" s="5">
         <v>45134</v>
       </c>
@@ -6091,8 +9693,47 @@
       <c r="O84" s="6"/>
       <c r="P84" s="6"/>
       <c r="Q84" s="8"/>
-    </row>
-    <row r="85" spans="1:17" hidden="1">
+      <c r="Y84" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z84" s="70">
+        <v>44708</v>
+      </c>
+      <c r="AA84" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB84" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD84" s="1">
+        <v>160</v>
+      </c>
+      <c r="AE84" s="70">
+        <v>45037</v>
+      </c>
+      <c r="AF84" s="70">
+        <v>45041</v>
+      </c>
+      <c r="AG84" s="70">
+        <v>45048</v>
+      </c>
+      <c r="AH84" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI84" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ84" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK84" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:37">
       <c r="A85" s="5">
         <v>45191</v>
       </c>
@@ -6137,8 +9778,47 @@
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
       <c r="Q85" s="8"/>
-    </row>
-    <row r="86" spans="1:17" hidden="1">
+      <c r="Y85" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z85" s="70">
+        <v>44708</v>
+      </c>
+      <c r="AA85" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB85" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD85" s="1">
+        <v>96</v>
+      </c>
+      <c r="AE85" s="70">
+        <v>45069</v>
+      </c>
+      <c r="AF85" s="70">
+        <v>45073</v>
+      </c>
+      <c r="AG85" s="70">
+        <v>45085</v>
+      </c>
+      <c r="AH85" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI85" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ85" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK85" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:37">
       <c r="A86" s="5">
         <v>45222</v>
       </c>
@@ -6183,8 +9863,47 @@
       <c r="O86" s="6"/>
       <c r="P86" s="6"/>
       <c r="Q86" s="8"/>
-    </row>
-    <row r="87" spans="1:17" hidden="1">
+      <c r="Y86" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z86" s="70">
+        <v>44708</v>
+      </c>
+      <c r="AA86" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB86" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD86" s="1">
+        <v>48</v>
+      </c>
+      <c r="AE86" s="70">
+        <v>45077</v>
+      </c>
+      <c r="AF86" s="70">
+        <v>45081</v>
+      </c>
+      <c r="AG86" s="70">
+        <v>45093</v>
+      </c>
+      <c r="AH86" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI86" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ86" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK86" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:37">
       <c r="A87" s="5">
         <v>45169</v>
       </c>
@@ -6229,8 +9948,47 @@
       <c r="O87" s="6"/>
       <c r="P87" s="6"/>
       <c r="Q87" s="8"/>
-    </row>
-    <row r="88" spans="1:17" hidden="1">
+      <c r="Y87" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z87" s="70">
+        <v>45093</v>
+      </c>
+      <c r="AA87" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB87" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD87" s="1">
+        <v>176</v>
+      </c>
+      <c r="AE87" s="70">
+        <v>45160</v>
+      </c>
+      <c r="AF87" s="70">
+        <v>45164</v>
+      </c>
+      <c r="AG87" s="70">
+        <v>45170</v>
+      </c>
+      <c r="AH87" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI87" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ87" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK87" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:37">
       <c r="A88" s="5">
         <v>44419</v>
       </c>
@@ -6279,8 +10037,47 @@
         <v>162</v>
       </c>
       <c r="Q88" s="8"/>
-    </row>
-    <row r="89" spans="1:17" hidden="1">
+      <c r="Y88" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z88" s="70">
+        <v>45093</v>
+      </c>
+      <c r="AA88" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB88" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD88" s="1">
+        <v>208</v>
+      </c>
+      <c r="AE88" s="70">
+        <v>45167</v>
+      </c>
+      <c r="AF88" s="70">
+        <v>45171</v>
+      </c>
+      <c r="AG88" s="70">
+        <v>45176</v>
+      </c>
+      <c r="AH88" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI88" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ88" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK88" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:37">
       <c r="A89" s="5">
         <v>45222</v>
       </c>
@@ -6325,8 +10122,47 @@
       <c r="O89" s="6"/>
       <c r="P89" s="6"/>
       <c r="Q89" s="8"/>
-    </row>
-    <row r="90" spans="1:17" hidden="1">
+      <c r="Y89" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z89" s="70">
+        <v>45093</v>
+      </c>
+      <c r="AA89" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB89" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD89" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE89" s="70">
+        <v>45183</v>
+      </c>
+      <c r="AF89" s="70">
+        <v>45187</v>
+      </c>
+      <c r="AG89" s="70">
+        <v>45197</v>
+      </c>
+      <c r="AH89" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI89" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ89" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK89" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:37">
       <c r="A90" s="5">
         <v>45225</v>
       </c>
@@ -6371,8 +10207,47 @@
       <c r="O90" s="6"/>
       <c r="P90" s="6"/>
       <c r="Q90" s="8"/>
-    </row>
-    <row r="91" spans="1:17" hidden="1">
+      <c r="Y90" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z90" s="70">
+        <v>45134</v>
+      </c>
+      <c r="AA90" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD90" s="1">
+        <v>64</v>
+      </c>
+      <c r="AE90" s="70">
+        <v>45258</v>
+      </c>
+      <c r="AF90" s="70">
+        <v>45262</v>
+      </c>
+      <c r="AG90" s="70">
+        <v>45267</v>
+      </c>
+      <c r="AH90" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI90" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ90" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK90" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:37">
       <c r="A91" s="5">
         <v>45169</v>
       </c>
@@ -6417,8 +10292,47 @@
       <c r="O91" s="6"/>
       <c r="P91" s="6"/>
       <c r="Q91" s="8"/>
-    </row>
-    <row r="92" spans="1:17" hidden="1">
+      <c r="Y91" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z91" s="70">
+        <v>45134</v>
+      </c>
+      <c r="AA91" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD91" s="1">
+        <v>96</v>
+      </c>
+      <c r="AE91" s="70">
+        <v>45252</v>
+      </c>
+      <c r="AF91" s="70">
+        <v>45256</v>
+      </c>
+      <c r="AG91" s="70">
+        <v>45270</v>
+      </c>
+      <c r="AH91" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI91" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ91" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK91" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:37">
       <c r="A92" s="5">
         <v>44409</v>
       </c>
@@ -6463,8 +10377,47 @@
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="8"/>
-    </row>
-    <row r="93" spans="1:17" hidden="1">
+      <c r="Y92" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="Z92" s="70">
+        <v>45134</v>
+      </c>
+      <c r="AA92" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD92" s="1">
+        <v>18</v>
+      </c>
+      <c r="AE92" s="70">
+        <v>45274</v>
+      </c>
+      <c r="AF92" s="70">
+        <v>45278</v>
+      </c>
+      <c r="AG92" s="70">
+        <v>45295</v>
+      </c>
+      <c r="AH92" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI92" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ92" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK92" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:37">
       <c r="A93" s="5">
         <v>45191</v>
       </c>
@@ -6509,8 +10462,47 @@
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="8"/>
-    </row>
-    <row r="94" spans="1:17" hidden="1">
+      <c r="Y93" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z93" s="70">
+        <v>45205</v>
+      </c>
+      <c r="AA93" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB93" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD93" s="1">
+        <v>100</v>
+      </c>
+      <c r="AE93" s="70">
+        <v>45310</v>
+      </c>
+      <c r="AF93" s="70">
+        <v>45314</v>
+      </c>
+      <c r="AG93" s="70">
+        <v>45323</v>
+      </c>
+      <c r="AH93" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI93" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ93" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK93" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:37">
       <c r="A94" s="5">
         <v>45225</v>
       </c>
@@ -6555,8 +10547,47 @@
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="8"/>
-    </row>
-    <row r="95" spans="1:17" hidden="1">
+      <c r="Y94" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z94" s="70">
+        <v>45205</v>
+      </c>
+      <c r="AA94" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB94" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD94" s="1">
+        <v>11</v>
+      </c>
+      <c r="AE94" s="70">
+        <v>45394</v>
+      </c>
+      <c r="AF94" s="70">
+        <v>45398</v>
+      </c>
+      <c r="AG94" s="70">
+        <v>45406</v>
+      </c>
+      <c r="AH94" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI94" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ94" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK94" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:37">
       <c r="A95" s="5">
         <v>45205</v>
       </c>
@@ -6601,8 +10632,47 @@
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
       <c r="Q95" s="8"/>
-    </row>
-    <row r="96" spans="1:17" hidden="1">
+      <c r="Y95" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z95" s="70">
+        <v>45205</v>
+      </c>
+      <c r="AA95" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD95" s="1">
+        <v>111</v>
+      </c>
+      <c r="AE95" s="70">
+        <v>45423</v>
+      </c>
+      <c r="AF95" s="70">
+        <v>45427</v>
+      </c>
+      <c r="AG95" s="70">
+        <v>45434</v>
+      </c>
+      <c r="AH95" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI95" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ95" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK95" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:37">
       <c r="A96" s="5">
         <v>45216</v>
       </c>
@@ -6647,8 +10717,47 @@
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
       <c r="Q96" s="8"/>
-    </row>
-    <row r="97" spans="1:17" hidden="1">
+      <c r="Y96" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z96" s="70">
+        <v>45443</v>
+      </c>
+      <c r="AA96" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB96" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD96" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE96" s="70">
+        <v>45469</v>
+      </c>
+      <c r="AF96" s="70">
+        <v>45473</v>
+      </c>
+      <c r="AG96" s="70">
+        <v>45478</v>
+      </c>
+      <c r="AH96" s="70">
+        <v>45580</v>
+      </c>
+      <c r="AI96" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ96" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK96" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:37">
       <c r="A97" s="5">
         <v>44708</v>
       </c>
@@ -6693,8 +10802,47 @@
       <c r="O97" s="6"/>
       <c r="P97" s="6"/>
       <c r="Q97" s="8"/>
-    </row>
-    <row r="98" spans="1:17" hidden="1">
+      <c r="Y97" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z97" s="70">
+        <v>45448</v>
+      </c>
+      <c r="AA97" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB97" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD97" s="1">
+        <v>80</v>
+      </c>
+      <c r="AE97" s="70">
+        <v>45565</v>
+      </c>
+      <c r="AF97" s="70">
+        <v>45575</v>
+      </c>
+      <c r="AG97" s="70">
+        <v>45583</v>
+      </c>
+      <c r="AH97" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI97" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ97" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK97" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="98" spans="1:37">
       <c r="A98" s="5">
         <v>45225</v>
       </c>
@@ -6739,8 +10887,47 @@
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
       <c r="Q98" s="8"/>
-    </row>
-    <row r="99" spans="1:17" hidden="1">
+      <c r="Y98" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z98" s="70">
+        <v>45443</v>
+      </c>
+      <c r="AA98" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB98" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD98" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE98" s="70">
+        <v>45580</v>
+      </c>
+      <c r="AF98" s="70">
+        <v>45584</v>
+      </c>
+      <c r="AG98" s="70">
+        <v>45598</v>
+      </c>
+      <c r="AH98" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI98" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ98" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK98" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:37">
       <c r="A99" s="5">
         <v>44708</v>
       </c>
@@ -6785,8 +10972,47 @@
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
       <c r="Q99" s="8"/>
-    </row>
-    <row r="100" spans="1:17" hidden="1">
+      <c r="Y99" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z99" s="70">
+        <v>45485</v>
+      </c>
+      <c r="AA99" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB99" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD99" s="1">
+        <v>100</v>
+      </c>
+      <c r="AE99" s="70">
+        <v>45616</v>
+      </c>
+      <c r="AF99" s="70">
+        <v>45620</v>
+      </c>
+      <c r="AG99" s="70">
+        <v>45634</v>
+      </c>
+      <c r="AH99" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI99" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ99" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK99" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:37">
       <c r="A100" s="5">
         <v>44708</v>
       </c>
@@ -6831,8 +11057,47 @@
       <c r="O100" s="6"/>
       <c r="P100" s="6"/>
       <c r="Q100" s="8"/>
-    </row>
-    <row r="101" spans="1:17" hidden="1">
+      <c r="Y100" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z100" s="70">
+        <v>45155</v>
+      </c>
+      <c r="AA100" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB100" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC100" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD100" s="1">
+        <v>30</v>
+      </c>
+      <c r="AE100" s="70">
+        <v>45220</v>
+      </c>
+      <c r="AF100" s="70">
+        <v>45224</v>
+      </c>
+      <c r="AG100" s="70">
+        <v>45225</v>
+      </c>
+      <c r="AH100" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI100" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ100" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK100" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:37">
       <c r="A101" s="5">
         <v>45205</v>
       </c>
@@ -6877,8 +11142,47 @@
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
       <c r="Q101" s="8"/>
-    </row>
-    <row r="102" spans="1:17" hidden="1">
+      <c r="Y101" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z101" s="70">
+        <v>45222</v>
+      </c>
+      <c r="AA101" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB101" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC101" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD101" s="1">
+        <v>30</v>
+      </c>
+      <c r="AE101" s="70">
+        <v>45310</v>
+      </c>
+      <c r="AF101" s="70">
+        <v>45314</v>
+      </c>
+      <c r="AG101" s="70">
+        <v>45323</v>
+      </c>
+      <c r="AH101" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI101" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ101" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK101" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:37">
       <c r="A102" s="5">
         <v>45134</v>
       </c>
@@ -6923,8 +11227,47 @@
       <c r="O102" s="6"/>
       <c r="P102" s="6"/>
       <c r="Q102" s="8"/>
-    </row>
-    <row r="103" spans="1:17" hidden="1">
+      <c r="Y102" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z102" s="70">
+        <v>45370</v>
+      </c>
+      <c r="AA102" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB102" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC102" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD102" s="1">
+        <v>30</v>
+      </c>
+      <c r="AE102" s="70">
+        <v>45400</v>
+      </c>
+      <c r="AF102" s="70">
+        <v>45404</v>
+      </c>
+      <c r="AG102" s="70">
+        <v>45414</v>
+      </c>
+      <c r="AH102" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI102" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ102" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK102" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:37">
       <c r="A103" s="5">
         <v>45222</v>
       </c>
@@ -6969,8 +11312,47 @@
       <c r="O103" s="6"/>
       <c r="P103" s="6"/>
       <c r="Q103" s="8"/>
-    </row>
-    <row r="104" spans="1:17" hidden="1">
+      <c r="Y103" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z103" s="70">
+        <v>45443</v>
+      </c>
+      <c r="AA103" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB103" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC103" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD103" s="1">
+        <v>65</v>
+      </c>
+      <c r="AE103" s="70">
+        <v>45483</v>
+      </c>
+      <c r="AF103" s="70">
+        <v>45487</v>
+      </c>
+      <c r="AG103" s="70">
+        <v>45497</v>
+      </c>
+      <c r="AH103" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI103" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ103" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK103" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:37">
       <c r="A104" s="5">
         <v>45226</v>
       </c>
@@ -7015,8 +11397,47 @@
       <c r="O104" s="6"/>
       <c r="P104" s="6"/>
       <c r="Q104" s="8"/>
-    </row>
-    <row r="105" spans="1:17" hidden="1">
+      <c r="Y104" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z104" s="70">
+        <v>45474</v>
+      </c>
+      <c r="AA104" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB104" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC104" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD104" s="1">
+        <v>30</v>
+      </c>
+      <c r="AE104" s="70">
+        <v>45548</v>
+      </c>
+      <c r="AF104" s="70">
+        <v>45552</v>
+      </c>
+      <c r="AG104" s="70">
+        <v>45569</v>
+      </c>
+      <c r="AH104" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI104" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ104" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK104" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:37">
       <c r="A105" s="5">
         <v>45226</v>
       </c>
@@ -7061,8 +11482,47 @@
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
       <c r="Q105" s="8"/>
-    </row>
-    <row r="106" spans="1:17" hidden="1">
+      <c r="Y105" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z105" s="70">
+        <v>45055</v>
+      </c>
+      <c r="AA105" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB105" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC105" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD105" s="1">
+        <v>80</v>
+      </c>
+      <c r="AE105" s="70">
+        <v>45121</v>
+      </c>
+      <c r="AF105" s="70">
+        <v>45125</v>
+      </c>
+      <c r="AG105" s="70">
+        <v>45134</v>
+      </c>
+      <c r="AH105" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI105" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ105" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK105" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:37">
       <c r="A106" s="5">
         <v>45251</v>
       </c>
@@ -7107,8 +11567,47 @@
       <c r="O106" s="6"/>
       <c r="P106" s="6"/>
       <c r="Q106" s="8"/>
-    </row>
-    <row r="107" spans="1:17" hidden="1">
+      <c r="Y106" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z106" s="70">
+        <v>45061</v>
+      </c>
+      <c r="AA106" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB106" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC106" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD106" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE106" s="70">
+        <v>45128</v>
+      </c>
+      <c r="AF106" s="70">
+        <v>45132</v>
+      </c>
+      <c r="AG106" s="70">
+        <v>45140</v>
+      </c>
+      <c r="AH106" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI106" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ106" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK106" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:37">
       <c r="A107" s="5">
         <v>45251</v>
       </c>
@@ -7153,8 +11652,47 @@
       <c r="O107" s="6"/>
       <c r="P107" s="6"/>
       <c r="Q107" s="8"/>
-    </row>
-    <row r="108" spans="1:17" hidden="1">
+      <c r="Y107" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z107" s="70">
+        <v>45061</v>
+      </c>
+      <c r="AA107" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB107" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC107" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE107" s="70">
+        <v>45155</v>
+      </c>
+      <c r="AF107" s="70">
+        <v>45159</v>
+      </c>
+      <c r="AG107" s="70">
+        <v>45166</v>
+      </c>
+      <c r="AH107" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI107" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK107" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:37">
       <c r="A108" s="5">
         <v>45274</v>
       </c>
@@ -7199,8 +11737,47 @@
       <c r="O108" s="6"/>
       <c r="P108" s="6"/>
       <c r="Q108" s="8"/>
-    </row>
-    <row r="109" spans="1:17" hidden="1">
+      <c r="Y108" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z108" s="70">
+        <v>45110</v>
+      </c>
+      <c r="AA108" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB108" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC108" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD108" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE108" s="70">
+        <v>45187</v>
+      </c>
+      <c r="AF108" s="70">
+        <v>45191</v>
+      </c>
+      <c r="AG108" s="70">
+        <v>45197</v>
+      </c>
+      <c r="AH108" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI108" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ108" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AK108" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:37">
       <c r="A109" s="5">
         <v>44419</v>
       </c>
@@ -7249,8 +11826,47 @@
         <v>162</v>
       </c>
       <c r="Q109" s="8"/>
-    </row>
-    <row r="110" spans="1:17" hidden="1">
+      <c r="Y109" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z109" s="70">
+        <v>45443</v>
+      </c>
+      <c r="AA109" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB109" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AC109" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD109" s="1">
+        <v>90</v>
+      </c>
+      <c r="AE109" s="70">
+        <v>45654</v>
+      </c>
+      <c r="AF109" s="70">
+        <v>45658</v>
+      </c>
+      <c r="AG109" s="70">
+        <v>45672</v>
+      </c>
+      <c r="AH109" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI109" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ109" s="1">
+        <v>2025</v>
+      </c>
+      <c r="AK109" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:37">
       <c r="A110" s="5">
         <v>45225</v>
       </c>
@@ -7295,8 +11911,47 @@
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
       <c r="Q110" s="8"/>
-    </row>
-    <row r="111" spans="1:17" hidden="1">
+      <c r="Y110" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z110" s="70">
+        <v>45569</v>
+      </c>
+      <c r="AA110" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB110" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AC110" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD110" s="1">
+        <v>150</v>
+      </c>
+      <c r="AE110" s="70">
+        <v>45703</v>
+      </c>
+      <c r="AF110" s="70">
+        <v>45707</v>
+      </c>
+      <c r="AG110" s="70">
+        <v>45721</v>
+      </c>
+      <c r="AH110" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI110" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ110" s="1">
+        <v>2025</v>
+      </c>
+      <c r="AK110" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:37">
       <c r="A111" s="5">
         <v>44708</v>
       </c>
@@ -7341,8 +11996,47 @@
       <c r="O111" s="6"/>
       <c r="P111" s="6"/>
       <c r="Q111" s="8"/>
-    </row>
-    <row r="112" spans="1:17" hidden="1">
+      <c r="Y111" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z111" s="70">
+        <v>45222</v>
+      </c>
+      <c r="AA111" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB111" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC111" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD111" s="1">
+        <v>10</v>
+      </c>
+      <c r="AE111" s="70">
+        <v>45279</v>
+      </c>
+      <c r="AF111" s="70">
+        <v>45282</v>
+      </c>
+      <c r="AG111" s="70">
+        <v>45296</v>
+      </c>
+      <c r="AH111" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI111" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ111" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK111" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:37">
       <c r="A112" s="5">
         <v>45230</v>
       </c>
@@ -7387,8 +12081,47 @@
       <c r="O112" s="6"/>
       <c r="P112" s="6"/>
       <c r="Q112" s="8"/>
-    </row>
-    <row r="113" spans="1:17" hidden="1">
+      <c r="Y112" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z112" s="70">
+        <v>44419</v>
+      </c>
+      <c r="AA112" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB112" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD112" s="1">
+        <v>15</v>
+      </c>
+      <c r="AE112" s="70">
+        <v>45278</v>
+      </c>
+      <c r="AF112" s="70">
+        <v>45282</v>
+      </c>
+      <c r="AG112" s="70">
+        <v>45296</v>
+      </c>
+      <c r="AH112" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI112" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ112" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK112" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:37">
       <c r="A113" s="5">
         <v>44419</v>
       </c>
@@ -7437,8 +12170,47 @@
         <v>162</v>
       </c>
       <c r="Q113" s="8"/>
-    </row>
-    <row r="114" spans="1:17" hidden="1">
+      <c r="Y113" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z113" s="70">
+        <v>44419</v>
+      </c>
+      <c r="AA113" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB113" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD113" s="1">
+        <v>14</v>
+      </c>
+      <c r="AE113" s="70">
+        <v>45315</v>
+      </c>
+      <c r="AF113" s="70">
+        <v>45319</v>
+      </c>
+      <c r="AG113" s="70">
+        <v>45323</v>
+      </c>
+      <c r="AH113" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI113" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ113" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK113" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:37">
       <c r="A114" s="5">
         <v>45230</v>
       </c>
@@ -7481,8 +12253,47 @@
       <c r="O114" s="6"/>
       <c r="P114" s="6"/>
       <c r="Q114" s="8"/>
-    </row>
-    <row r="115" spans="1:17" hidden="1">
+      <c r="Y114" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z114" s="70">
+        <v>44419</v>
+      </c>
+      <c r="AA114" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB114" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD114" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE114" s="70">
+        <v>45324</v>
+      </c>
+      <c r="AF114" s="70">
+        <v>45328</v>
+      </c>
+      <c r="AG114" s="70">
+        <v>45337</v>
+      </c>
+      <c r="AH114" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI114" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ114" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK114" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:37">
       <c r="A115" s="5">
         <v>44419</v>
       </c>
@@ -7531,8 +12342,47 @@
         <v>162</v>
       </c>
       <c r="Q115" s="8"/>
-    </row>
-    <row r="116" spans="1:17" hidden="1">
+      <c r="Y115" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z115" s="70">
+        <v>44419</v>
+      </c>
+      <c r="AA115" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB115" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD115" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE115" s="70">
+        <v>45345</v>
+      </c>
+      <c r="AF115" s="70">
+        <v>45349</v>
+      </c>
+      <c r="AG115" s="70">
+        <v>45356</v>
+      </c>
+      <c r="AH115" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI115" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ115" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK115" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:37">
       <c r="A116" s="5">
         <v>45301</v>
       </c>
@@ -7577,8 +12427,47 @@
       <c r="O116" s="6"/>
       <c r="P116" s="6"/>
       <c r="Q116" s="8"/>
-    </row>
-    <row r="117" spans="1:17" hidden="1">
+      <c r="Y116" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z116" s="70">
+        <v>44526</v>
+      </c>
+      <c r="AA116" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB116" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD116" s="1">
+        <v>96</v>
+      </c>
+      <c r="AE116" s="70">
+        <v>45478</v>
+      </c>
+      <c r="AF116" s="70">
+        <v>45482</v>
+      </c>
+      <c r="AG116" s="70">
+        <v>45489</v>
+      </c>
+      <c r="AH116" s="70">
+        <v>45502</v>
+      </c>
+      <c r="AI116" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ116" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK116" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:37">
       <c r="A117" s="5">
         <v>45274</v>
       </c>
@@ -7623,8 +12512,47 @@
       <c r="O117" s="6"/>
       <c r="P117" s="6"/>
       <c r="Q117" s="8"/>
-    </row>
-    <row r="118" spans="1:17" hidden="1">
+      <c r="Y117" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z117" s="70">
+        <v>44526</v>
+      </c>
+      <c r="AA117" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB117" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC117" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD117" s="1">
+        <v>84</v>
+      </c>
+      <c r="AE117" s="70">
+        <v>45483</v>
+      </c>
+      <c r="AF117" s="70">
+        <v>45487</v>
+      </c>
+      <c r="AG117" s="70">
+        <v>45497</v>
+      </c>
+      <c r="AH117" s="70">
+        <v>45509</v>
+      </c>
+      <c r="AI117" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ117" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK117" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:37">
       <c r="A118" s="5">
         <v>45279</v>
       </c>
@@ -7669,8 +12597,47 @@
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="Q118" s="8"/>
-    </row>
-    <row r="119" spans="1:17" hidden="1">
+      <c r="Y118" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z118" s="70">
+        <v>44526</v>
+      </c>
+      <c r="AA118" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB118" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC118" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD118" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE118" s="70">
+        <v>45486</v>
+      </c>
+      <c r="AF118" s="70">
+        <v>45490</v>
+      </c>
+      <c r="AG118" s="70">
+        <v>45498</v>
+      </c>
+      <c r="AH118" s="70">
+        <v>45509</v>
+      </c>
+      <c r="AI118" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ118" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK118" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:37">
       <c r="A119" s="5">
         <v>45252</v>
       </c>
@@ -7715,8 +12682,47 @@
       <c r="O119" s="6"/>
       <c r="P119" s="6"/>
       <c r="Q119" s="8"/>
-    </row>
-    <row r="120" spans="1:17" hidden="1">
+      <c r="Y119" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z119" s="70">
+        <v>44526</v>
+      </c>
+      <c r="AA119" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB119" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC119" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD119" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE119" s="70">
+        <v>45504</v>
+      </c>
+      <c r="AF119" s="70">
+        <v>45508</v>
+      </c>
+      <c r="AG119" s="70">
+        <v>45526</v>
+      </c>
+      <c r="AH119" s="70">
+        <v>45509</v>
+      </c>
+      <c r="AI119" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ119" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK119" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:37">
       <c r="A120" s="5">
         <v>45252</v>
       </c>
@@ -7761,8 +12767,47 @@
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
       <c r="Q120" s="8"/>
-    </row>
-    <row r="121" spans="1:17" hidden="1">
+      <c r="Y120" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z120" s="70">
+        <v>44526</v>
+      </c>
+      <c r="AA120" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB120" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC120" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD120" s="1">
+        <v>166</v>
+      </c>
+      <c r="AE120" s="70">
+        <v>45586</v>
+      </c>
+      <c r="AF120" s="70">
+        <v>45590</v>
+      </c>
+      <c r="AG120" s="70">
+        <v>45604</v>
+      </c>
+      <c r="AH120" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI120" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ120" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK120" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:37">
       <c r="A121" s="5">
         <v>45252</v>
       </c>
@@ -7807,8 +12852,47 @@
       <c r="O121" s="6"/>
       <c r="P121" s="6"/>
       <c r="Q121" s="8"/>
-    </row>
-    <row r="122" spans="1:17" hidden="1">
+      <c r="Y121" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z121" s="70">
+        <v>44526</v>
+      </c>
+      <c r="AA121" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB121" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD121" s="1">
+        <v>144</v>
+      </c>
+      <c r="AE121" s="70">
+        <v>45611</v>
+      </c>
+      <c r="AF121" s="70">
+        <v>45615</v>
+      </c>
+      <c r="AG121" s="70">
+        <v>45629</v>
+      </c>
+      <c r="AH121" s="70">
+        <v>45604</v>
+      </c>
+      <c r="AI121" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ121" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK121" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:37">
       <c r="A122" s="5">
         <v>45265</v>
       </c>
@@ -7853,8 +12937,47 @@
       <c r="O122" s="6"/>
       <c r="P122" s="6"/>
       <c r="Q122" s="8"/>
-    </row>
-    <row r="123" spans="1:17" hidden="1">
+      <c r="Y122" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z122" s="70">
+        <v>45474</v>
+      </c>
+      <c r="AA122" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB122" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD122" s="1">
+        <v>215</v>
+      </c>
+      <c r="AE122" s="70">
+        <v>45616</v>
+      </c>
+      <c r="AF122" s="70">
+        <v>45620</v>
+      </c>
+      <c r="AG122" s="70">
+        <v>45634</v>
+      </c>
+      <c r="AH122" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI122" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ122" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK122" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:37">
       <c r="A123" s="5">
         <v>45265</v>
       </c>
@@ -7899,8 +13022,47 @@
       <c r="O123" s="6"/>
       <c r="P123" s="6"/>
       <c r="Q123" s="8"/>
-    </row>
-    <row r="124" spans="1:17" hidden="1">
+      <c r="Y123" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z123" s="70">
+        <v>44419</v>
+      </c>
+      <c r="AA123" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB123" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD123" s="1">
+        <v>257</v>
+      </c>
+      <c r="AE123" s="70">
+        <v>45265</v>
+      </c>
+      <c r="AF123" s="70">
+        <v>45269</v>
+      </c>
+      <c r="AG123" s="70">
+        <v>45640</v>
+      </c>
+      <c r="AH123" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI123" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ123" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK123" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:37">
       <c r="A124" s="5">
         <v>45300</v>
       </c>
@@ -7945,8 +13107,47 @@
       <c r="O124" s="6"/>
       <c r="P124" s="6"/>
       <c r="Q124" s="8"/>
-    </row>
-    <row r="125" spans="1:17" hidden="1">
+      <c r="Y124" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z124" s="70">
+        <v>45530</v>
+      </c>
+      <c r="AA124" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB124" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD124" s="1">
+        <v>200</v>
+      </c>
+      <c r="AE124" s="70">
+        <v>45716</v>
+      </c>
+      <c r="AF124" s="70">
+        <v>45720</v>
+      </c>
+      <c r="AG124" s="70">
+        <v>45734</v>
+      </c>
+      <c r="AH124" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI124" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ124" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK124" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:37">
       <c r="A125" s="5">
         <v>45252</v>
       </c>
@@ -7991,8 +13192,47 @@
       <c r="O125" s="6"/>
       <c r="P125" s="6"/>
       <c r="Q125" s="8"/>
-    </row>
-    <row r="126" spans="1:17" hidden="1">
+      <c r="Y125" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="Z125" s="70">
+        <v>45169</v>
+      </c>
+      <c r="AA125" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB125" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC125" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD125" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE125" s="70">
+        <v>45655</v>
+      </c>
+      <c r="AF125" s="70">
+        <v>45293</v>
+      </c>
+      <c r="AG125" s="70">
+        <v>45296</v>
+      </c>
+      <c r="AH125" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ125" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK125" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:37">
       <c r="A126" s="5">
         <v>45205</v>
       </c>
@@ -8039,8 +13279,47 @@
       </c>
       <c r="P126" s="6"/>
       <c r="Q126" s="8"/>
-    </row>
-    <row r="127" spans="1:17" hidden="1">
+      <c r="Y126" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z126" s="70">
+        <v>45533</v>
+      </c>
+      <c r="AA126" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB126" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC126" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD126" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE126" s="70">
+        <v>45654</v>
+      </c>
+      <c r="AF126" s="70">
+        <v>45658</v>
+      </c>
+      <c r="AG126" s="70">
+        <v>45672</v>
+      </c>
+      <c r="AH126" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI126" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ126" s="1">
+        <v>2025</v>
+      </c>
+      <c r="AK126" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:37">
       <c r="A127" s="5">
         <v>45279</v>
       </c>
@@ -8085,8 +13364,47 @@
       <c r="O127" s="6"/>
       <c r="P127" s="6"/>
       <c r="Q127" s="8"/>
-    </row>
-    <row r="128" spans="1:17" hidden="1">
+      <c r="Y127" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="Z127" s="70">
+        <v>45505</v>
+      </c>
+      <c r="AA127" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB127" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC127" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD127" s="1">
+        <v>100</v>
+      </c>
+      <c r="AE127" s="70">
+        <v>45656</v>
+      </c>
+      <c r="AF127" s="70">
+        <v>45660</v>
+      </c>
+      <c r="AG127" s="70">
+        <v>45674</v>
+      </c>
+      <c r="AH127" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI127" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AJ127" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK127" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:37">
       <c r="A128" s="5">
         <v>45344</v>
       </c>
@@ -8131,8 +13449,47 @@
       <c r="O128" s="6"/>
       <c r="P128" s="6"/>
       <c r="Q128" s="8"/>
-    </row>
-    <row r="129" spans="1:17" hidden="1">
+      <c r="Y128" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z128" s="70">
+        <v>45560</v>
+      </c>
+      <c r="AA128" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB128" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AC128" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD128" s="1">
+        <v>100</v>
+      </c>
+      <c r="AE128" s="70">
+        <v>45713</v>
+      </c>
+      <c r="AF128" s="70">
+        <v>45717</v>
+      </c>
+      <c r="AG128" s="70">
+        <v>45731</v>
+      </c>
+      <c r="AH128" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI128" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ128" s="1">
+        <v>2025</v>
+      </c>
+      <c r="AK128" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" spans="1:37">
       <c r="A129" s="5">
         <v>45316</v>
       </c>
@@ -8177,8 +13534,47 @@
       <c r="O129" s="6"/>
       <c r="P129" s="6"/>
       <c r="Q129" s="8"/>
-    </row>
-    <row r="130" spans="1:17" hidden="1">
+      <c r="Y129" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z129" s="70">
+        <v>45447</v>
+      </c>
+      <c r="AA129" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB129" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC129" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD129" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE129" s="70">
+        <v>45586</v>
+      </c>
+      <c r="AF129" s="70">
+        <v>45590</v>
+      </c>
+      <c r="AG129" s="70">
+        <v>45604</v>
+      </c>
+      <c r="AH129" s="70">
+        <v>45568</v>
+      </c>
+      <c r="AI129" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ129" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AK129" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="130" spans="1:37">
       <c r="A130" s="5">
         <v>45344</v>
       </c>
@@ -8224,7 +13620,7 @@
       <c r="P130" s="6"/>
       <c r="Q130" s="8"/>
     </row>
-    <row r="131" spans="1:17" hidden="1">
+    <row r="131" spans="1:37">
       <c r="A131" s="5">
         <v>45370</v>
       </c>
@@ -8272,7 +13668,7 @@
       <c r="P131" s="6"/>
       <c r="Q131" s="8"/>
     </row>
-    <row r="132" spans="1:17" hidden="1">
+    <row r="132" spans="1:37">
       <c r="A132" s="5">
         <v>45265</v>
       </c>
@@ -8318,7 +13714,7 @@
       <c r="P132" s="6"/>
       <c r="Q132" s="8"/>
     </row>
-    <row r="133" spans="1:17" hidden="1">
+    <row r="133" spans="1:37">
       <c r="A133" s="5">
         <v>45300</v>
       </c>
@@ -8364,7 +13760,7 @@
       <c r="P133" s="6"/>
       <c r="Q133" s="8"/>
     </row>
-    <row r="134" spans="1:17" hidden="1">
+    <row r="134" spans="1:37">
       <c r="A134" s="5">
         <v>45316</v>
       </c>
@@ -8410,7 +13806,7 @@
       <c r="P134" s="6"/>
       <c r="Q134" s="8"/>
     </row>
-    <row r="135" spans="1:17" hidden="1">
+    <row r="135" spans="1:37">
       <c r="A135" s="5">
         <v>45316</v>
       </c>
@@ -8456,7 +13852,7 @@
       <c r="P135" s="6"/>
       <c r="Q135" s="8"/>
     </row>
-    <row r="136" spans="1:17" hidden="1">
+    <row r="136" spans="1:37">
       <c r="A136" s="5">
         <v>45205</v>
       </c>
@@ -8504,7 +13900,7 @@
       <c r="P136" s="6"/>
       <c r="Q136" s="8"/>
     </row>
-    <row r="137" spans="1:17" hidden="1">
+    <row r="137" spans="1:37">
       <c r="A137" s="5">
         <v>45300</v>
       </c>
@@ -8552,7 +13948,7 @@
       <c r="P137" s="6"/>
       <c r="Q137" s="8"/>
     </row>
-    <row r="138" spans="1:17" hidden="1">
+    <row r="138" spans="1:37">
       <c r="A138" s="5">
         <v>45370</v>
       </c>
@@ -8598,7 +13994,7 @@
       <c r="P138" s="6"/>
       <c r="Q138" s="8"/>
     </row>
-    <row r="139" spans="1:17" hidden="1">
+    <row r="139" spans="1:37">
       <c r="A139" s="5">
         <v>45316</v>
       </c>
@@ -8646,7 +14042,7 @@
       <c r="P139" s="6"/>
       <c r="Q139" s="8"/>
     </row>
-    <row r="140" spans="1:17" hidden="1">
+    <row r="140" spans="1:37">
       <c r="A140" s="5">
         <v>45316</v>
       </c>
@@ -8694,7 +14090,7 @@
       <c r="P140" s="6"/>
       <c r="Q140" s="8"/>
     </row>
-    <row r="141" spans="1:17" hidden="1">
+    <row r="141" spans="1:37">
       <c r="A141" s="5">
         <v>45415</v>
       </c>
@@ -8740,7 +14136,7 @@
       <c r="P141" s="6"/>
       <c r="Q141" s="8"/>
     </row>
-    <row r="142" spans="1:17" hidden="1">
+    <row r="142" spans="1:37">
       <c r="A142" s="5">
         <v>45344</v>
       </c>
@@ -8786,7 +14182,7 @@
       <c r="P142" s="6"/>
       <c r="Q142" s="8"/>
     </row>
-    <row r="143" spans="1:17" hidden="1">
+    <row r="143" spans="1:37">
       <c r="A143" s="5">
         <v>45316</v>
       </c>
@@ -8832,7 +14228,7 @@
       <c r="P143" s="6"/>
       <c r="Q143" s="8"/>
     </row>
-    <row r="144" spans="1:17" hidden="1">
+    <row r="144" spans="1:37">
       <c r="A144" s="5">
         <v>45415</v>
       </c>
@@ -8878,7 +14274,7 @@
       <c r="P144" s="6"/>
       <c r="Q144" s="8"/>
     </row>
-    <row r="145" spans="1:17" hidden="1">
+    <row r="145" spans="1:17">
       <c r="A145" s="5">
         <v>45435</v>
       </c>
@@ -8924,7 +14320,7 @@
       <c r="P145" s="6"/>
       <c r="Q145" s="8"/>
     </row>
-    <row r="146" spans="1:17" hidden="1">
+    <row r="146" spans="1:17">
       <c r="A146" s="5">
         <v>45443</v>
       </c>
@@ -8972,7 +14368,7 @@
       <c r="P146" s="6"/>
       <c r="Q146" s="8"/>
     </row>
-    <row r="147" spans="1:17" hidden="1">
+    <row r="147" spans="1:17">
       <c r="A147" s="5">
         <v>44526</v>
       </c>
@@ -9022,7 +14418,7 @@
       <c r="P147" s="6"/>
       <c r="Q147" s="8"/>
     </row>
-    <row r="148" spans="1:17" hidden="1">
+    <row r="148" spans="1:17">
       <c r="A148" s="5">
         <v>45443</v>
       </c>
@@ -9068,7 +14464,7 @@
       <c r="P148" s="6"/>
       <c r="Q148" s="8"/>
     </row>
-    <row r="149" spans="1:17" hidden="1">
+    <row r="149" spans="1:17">
       <c r="A149" s="5">
         <v>45435</v>
       </c>
@@ -9118,7 +14514,7 @@
       <c r="P149" s="6"/>
       <c r="Q149" s="8"/>
     </row>
-    <row r="150" spans="1:17" hidden="1">
+    <row r="150" spans="1:17">
       <c r="A150" s="5">
         <v>44526</v>
       </c>
@@ -9168,7 +14564,7 @@
       <c r="P150" s="6"/>
       <c r="Q150" s="8"/>
     </row>
-    <row r="151" spans="1:17" hidden="1">
+    <row r="151" spans="1:17">
       <c r="A151" s="5">
         <v>44526</v>
       </c>
@@ -9218,7 +14614,7 @@
       <c r="P151" s="6"/>
       <c r="Q151" s="8"/>
     </row>
-    <row r="152" spans="1:17" hidden="1">
+    <row r="152" spans="1:17">
       <c r="A152" s="5">
         <v>45443</v>
       </c>
@@ -9264,7 +14660,7 @@
       <c r="P152" s="6"/>
       <c r="Q152" s="8"/>
     </row>
-    <row r="153" spans="1:17" hidden="1">
+    <row r="153" spans="1:17">
       <c r="A153" s="5">
         <v>45390</v>
       </c>
@@ -9310,7 +14706,7 @@
       <c r="P153" s="6"/>
       <c r="Q153" s="8"/>
     </row>
-    <row r="154" spans="1:17" hidden="1">
+    <row r="154" spans="1:17">
       <c r="A154" s="5">
         <v>45435</v>
       </c>
@@ -9356,7 +14752,7 @@
       <c r="P154" s="6"/>
       <c r="Q154" s="8"/>
     </row>
-    <row r="155" spans="1:17" hidden="1">
+    <row r="155" spans="1:17">
       <c r="A155" s="5">
         <v>45316</v>
       </c>
@@ -9402,7 +14798,7 @@
       <c r="P155" s="6"/>
       <c r="Q155" s="8"/>
     </row>
-    <row r="156" spans="1:17" hidden="1">
+    <row r="156" spans="1:17">
       <c r="A156" s="5">
         <v>45316</v>
       </c>
@@ -9448,7 +14844,7 @@
       <c r="P156" s="6"/>
       <c r="Q156" s="8"/>
     </row>
-    <row r="157" spans="1:17" hidden="1">
+    <row r="157" spans="1:17">
       <c r="A157" s="5">
         <v>45443</v>
       </c>
@@ -9494,7 +14890,7 @@
       <c r="P157" s="6"/>
       <c r="Q157" s="8"/>
     </row>
-    <row r="158" spans="1:17" hidden="1">
+    <row r="158" spans="1:17">
       <c r="A158" s="5">
         <v>45427</v>
       </c>
@@ -9544,7 +14940,7 @@
       <c r="P158" s="6"/>
       <c r="Q158" s="8"/>
     </row>
-    <row r="159" spans="1:17" hidden="1">
+    <row r="159" spans="1:17">
       <c r="A159" s="5">
         <v>45427</v>
       </c>
@@ -9594,7 +14990,7 @@
       <c r="P159" s="6"/>
       <c r="Q159" s="8"/>
     </row>
-    <row r="160" spans="1:17" hidden="1">
+    <row r="160" spans="1:17">
       <c r="A160" s="5">
         <v>44526</v>
       </c>
@@ -9644,7 +15040,7 @@
       <c r="P160" s="6"/>
       <c r="Q160" s="8"/>
     </row>
-    <row r="161" spans="1:16" hidden="1">
+    <row r="161" spans="1:16">
       <c r="A161" s="23">
         <v>45427</v>
       </c>
@@ -9691,7 +15087,7 @@
       </c>
       <c r="P161" s="24"/>
     </row>
-    <row r="162" spans="1:16" hidden="1">
+    <row r="162" spans="1:16">
       <c r="A162" s="23">
         <v>45427</v>
       </c>
@@ -9738,7 +15134,7 @@
       </c>
       <c r="P162" s="24"/>
     </row>
-    <row r="163" spans="1:16" ht="15.45" hidden="1" customHeight="1">
+    <row r="163" spans="1:16" ht="15.4" customHeight="1">
       <c r="A163" s="23">
         <v>45446</v>
       </c>
@@ -9784,7 +15180,7 @@
       </c>
       <c r="P163" s="24"/>
     </row>
-    <row r="164" spans="1:16" ht="15.45" hidden="1" customHeight="1">
+    <row r="164" spans="1:16" ht="15.4" customHeight="1">
       <c r="A164" s="23">
         <v>45446</v>
       </c>
@@ -9830,7 +15226,7 @@
       </c>
       <c r="P164" s="24"/>
     </row>
-    <row r="165" spans="1:16" ht="15.45" hidden="1" customHeight="1">
+    <row r="165" spans="1:16" ht="15.4" customHeight="1">
       <c r="A165" s="23">
         <v>45446</v>
       </c>
@@ -9876,7 +15272,7 @@
       </c>
       <c r="P165" s="24"/>
     </row>
-    <row r="166" spans="1:16" ht="15.45" hidden="1" customHeight="1">
+    <row r="166" spans="1:16" ht="15.4" customHeight="1">
       <c r="A166" s="23">
         <v>45474</v>
       </c>
@@ -9921,7 +15317,7 @@
       <c r="O166" s="24"/>
       <c r="P166" s="24"/>
     </row>
-    <row r="167" spans="1:16" s="43" customFormat="1" hidden="1">
+    <row r="167" spans="1:16" s="43" customFormat="1">
       <c r="A167" s="60">
         <v>45485</v>
       </c>
@@ -9972,7 +15368,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="168" spans="1:16" s="43" customFormat="1" hidden="1">
+    <row r="168" spans="1:16" s="43" customFormat="1">
       <c r="A168" s="60">
         <v>45498</v>
       </c>
@@ -10023,7 +15419,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="169" spans="1:16" s="43" customFormat="1" hidden="1">
+    <row r="169" spans="1:16" s="43" customFormat="1">
       <c r="A169" s="23">
         <v>45524</v>
       </c>
@@ -11659,7 +17055,7 @@
       <c r="O204" s="38"/>
       <c r="P204" s="37"/>
     </row>
-    <row r="205" spans="1:16" s="39" customFormat="1" ht="15.6">
+    <row r="205" spans="1:16" s="39" customFormat="1" ht="15.75">
       <c r="A205" s="32">
         <v>45546</v>
       </c>
@@ -11701,7 +17097,7 @@
       <c r="O205" s="37"/>
       <c r="P205" s="37"/>
     </row>
-    <row r="206" spans="1:16" s="39" customFormat="1" ht="15.6">
+    <row r="206" spans="1:16" s="39" customFormat="1" ht="15.75">
       <c r="A206" s="32">
         <v>45546</v>
       </c>
@@ -11745,7 +17141,7 @@
       <c r="O206" s="37"/>
       <c r="P206" s="37"/>
     </row>
-    <row r="207" spans="1:16" s="39" customFormat="1" ht="15.6">
+    <row r="207" spans="1:16" s="39" customFormat="1" ht="15.75">
       <c r="A207" s="32">
         <v>45546</v>
       </c>
@@ -11787,7 +17183,7 @@
       <c r="O207" s="37"/>
       <c r="P207" s="37"/>
     </row>
-    <row r="208" spans="1:16" s="39" customFormat="1" ht="15.6">
+    <row r="208" spans="1:16" s="39" customFormat="1" ht="15.75">
       <c r="A208" s="32">
         <v>45546</v>
       </c>
@@ -11829,7 +17225,7 @@
       <c r="O208" s="37"/>
       <c r="P208" s="37"/>
     </row>
-    <row r="209" spans="1:16" ht="15.45" customHeight="1">
+    <row r="209" spans="1:16" ht="15.4" customHeight="1">
       <c r="A209" s="32">
         <v>45560</v>
       </c>
@@ -11871,7 +17267,7 @@
       <c r="O209" s="4"/>
       <c r="P209" s="4"/>
     </row>
-    <row r="210" spans="1:16" ht="15.6">
+    <row r="210" spans="1:16" ht="15.75">
       <c r="A210" s="32">
         <v>45560</v>
       </c>
@@ -11913,7 +17309,7 @@
       <c r="O210" s="4"/>
       <c r="P210" s="4"/>
     </row>
-    <row r="211" spans="1:16" ht="15.6">
+    <row r="211" spans="1:16" ht="15.75">
       <c r="A211" s="32">
         <v>45560</v>
       </c>
@@ -11955,7 +17351,7 @@
       <c r="O211" s="4"/>
       <c r="P211" s="4"/>
     </row>
-    <row r="212" spans="1:16" ht="15.6">
+    <row r="212" spans="1:16" ht="15.75">
       <c r="A212" s="32">
         <v>45560</v>
       </c>
@@ -11997,7 +17393,7 @@
       <c r="O212" s="4"/>
       <c r="P212" s="4"/>
     </row>
-    <row r="213" spans="1:16" ht="15.6">
+    <row r="213" spans="1:16" ht="15.75">
       <c r="A213" s="32">
         <v>45569</v>
       </c>
@@ -12039,7 +17435,7 @@
       <c r="O213" s="4"/>
       <c r="P213" s="4"/>
     </row>
-    <row r="214" spans="1:16" ht="15.6">
+    <row r="214" spans="1:16" ht="15.75">
       <c r="A214" s="32">
         <v>45569</v>
       </c>
@@ -12119,7 +17515,7 @@
       <c r="O215" s="4"/>
       <c r="P215" s="4"/>
     </row>
-    <row r="216" spans="1:16" ht="15.6">
+    <row r="216" spans="1:16" ht="15.75">
       <c r="A216" s="32">
         <v>45569</v>
       </c>
@@ -12161,7 +17557,7 @@
       <c r="O216" s="4"/>
       <c r="P216" s="4"/>
     </row>
-    <row r="217" spans="1:16" ht="15.6">
+    <row r="217" spans="1:16" ht="15.75">
       <c r="A217" s="32">
         <v>45569</v>
       </c>
@@ -12455,14 +17851,7 @@
       <c r="O223" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q223" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="In transit"/>
-        <filter val="Open"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q223" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12478,15 +17867,15 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.69921875" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -12621,7 +18010,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="69" t="s">
         <v>204</v>
       </c>
